--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="516">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1558,6 +1558,15 @@
   </si>
   <si>
     <t>Clade</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>ncbi-refseqs</t>
+  </si>
+  <si>
+    <t>fasta-refseqs</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1716,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="387">
+  <cellStyleXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2116,7 +2129,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="387">
+  <cellStyles count="391">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2310,6 +2323,8 @@
     <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2503,6 +2518,8 @@
     <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2848,3846 +2865,4152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A101" sqref="A1:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N25" sqref="A1:N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35.1640625" customWidth="1"/>
+    <col min="1" max="2" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>2</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="L30" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="M30" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="M31" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="L32" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="L33" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="L35" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="L36" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="M36" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="M40" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="K41" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" customHeight="1">
+    <row r="42" spans="1:14" ht="16" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="L42" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1">
+    <row r="43" spans="1:14" ht="16" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="K43" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="M43" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="10"/>
+      <c r="J44" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="K44" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="L44" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="M44" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="K46" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="M46" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="K47" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="L47" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="M47" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="10"/>
+      <c r="J48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="K48" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="M48" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="L49" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="M49" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="K50" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="M50" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="10"/>
+      <c r="J51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="K51" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="L51" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="M51" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="K52" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="L52" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="10"/>
+      <c r="J53" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="K53" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="L53" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="M53" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="10"/>
+      <c r="J54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="K54" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="L54" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="M54" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="L55" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="I56" s="10"/>
       <c r="J56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="M56" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="10"/>
+      <c r="J57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="K57" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="L57" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="M57" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="L58" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="M58" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="12" customFormat="1" ht="16">
+    <row r="59" spans="1:14" s="12" customFormat="1" ht="16">
       <c r="A59" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="D59" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="F59" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="G59" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="H59" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="15"/>
+      <c r="J59" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="15"/>
+      <c r="L59" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L59" s="14" t="s">
+      <c r="M59" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="D60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="F60" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="G60" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="H60" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14" t="s">
-        <v>227</v>
-      </c>
+      <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L60" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="L60" s="14" t="s">
+      <c r="M60" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="K61" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="M61" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="K62" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="M62" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="8"/>
+      <c r="J63" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="M63" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="8"/>
+      <c r="J64" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="K64" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="M64" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="I65" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="J65" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="L65" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="M65" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="8"/>
+      <c r="J66" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="L66" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="M66" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="8"/>
+      <c r="J67" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="K67" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="M67" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="K68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="L68" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="M68" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="8"/>
+      <c r="J69" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="L69" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="M69" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="J70" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="L70" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="M70" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="8"/>
+      <c r="J71" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="K71" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="M71" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="8"/>
+      <c r="J72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="K72" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="L72" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="M72" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="8"/>
+      <c r="J73" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="K73" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="L73" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="M73" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="8"/>
+      <c r="J74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="L74" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="M74" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D75" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="8"/>
+      <c r="J75" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="K75" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="L75" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="M75" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="8"/>
+      <c r="J76" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="K76" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="L76" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="M76" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="I77" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="K77" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K77" s="9" t="s">
+      <c r="L77" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="M77" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="I78" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="J78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="K78" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K78" s="9" t="s">
+      <c r="L78" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="8"/>
+      <c r="K79" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="L79" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="M79" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="8"/>
+      <c r="K80" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="L80" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="M80" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="8"/>
+      <c r="K81" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="K81" s="9" t="s">
+      <c r="L81" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="M81" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="8"/>
+      <c r="K82" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="K82" s="9" t="s">
+      <c r="L82" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="M82" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="8"/>
+      <c r="K83" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="K83" s="9" t="s">
+      <c r="L83" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="M83" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="8"/>
+      <c r="K84" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="K84" s="9" t="s">
+      <c r="L84" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="M84" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="8"/>
+      <c r="K85" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="K85" s="9" t="s">
+      <c r="L85" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="M85" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D86" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="4" t="s">
+      <c r="J86" s="8"/>
+      <c r="K86" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="K86" s="9" t="s">
+      <c r="L86" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="M86" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13">
       <c r="A87" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="8"/>
+      <c r="K87" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K87" s="9" t="s">
+      <c r="L87" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="M87" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="8"/>
+      <c r="K88" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="L88" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="M88" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="8"/>
+      <c r="K89" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="L89" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L89" s="9" t="s">
+      <c r="M89" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="8"/>
+      <c r="K90" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="K90" s="9" t="s">
+      <c r="L90" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="M90" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D91" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="8"/>
+      <c r="K91" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K91" s="9" t="s">
+      <c r="L91" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="M91" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D92" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="H92" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="8"/>
+      <c r="K92" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K92" s="9" t="s">
+      <c r="L92" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="M92" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="8"/>
+      <c r="K93" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="L93" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="M93" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="H94" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="8"/>
+      <c r="K94" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="K94" s="9" t="s">
+      <c r="L94" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="M94" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="8"/>
+      <c r="K95" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K95" s="9" t="s">
+      <c r="L95" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="M95" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D96" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="8"/>
+      <c r="K96" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="K96" s="9" t="s">
+      <c r="L96" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="M96" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="8"/>
+      <c r="K97" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="K97" s="9" t="s">
+      <c r="L97" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="M97" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D98" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="8"/>
+      <c r="K98" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K98" s="9" t="s">
+      <c r="L98" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="M98" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D99" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="G99" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="8"/>
+      <c r="K99" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="K99" s="9" t="s">
+      <c r="L99" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="M99" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D100" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="8"/>
+      <c r="K100" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="L100" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L100" s="9" t="s">
+      <c r="M100" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="8"/>
+      <c r="K101" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="L101" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="M101" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D102" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="H102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="13" t="s">
+      <c r="J102" s="8"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L102" s="13" t="s">
+      <c r="M102" s="13" t="s">
         <v>465</v>
       </c>
     </row>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311CDEA4-E9DC-7845-A2C2-4A822955B82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="2580" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="405">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1237,13 +1231,16 @@
   </si>
   <si>
     <t>NM_172138</t>
+  </si>
+  <si>
+    <t>Xenopus tropicalis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1406,8 +1403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="459">
+  <cellStyleXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1886,7 +1887,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="459">
+  <cellStyles count="463">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2116,6 +2117,8 @@
     <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2345,6 +2348,8 @@
     <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2689,14 +2694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F36" sqref="A1:M110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="3" width="14.83203125" customWidth="1"/>
@@ -2764,7 +2769,9 @@
         <v>319</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5007,7 +5014,7 @@
       </c>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" s="6" customFormat="1">
+    <row r="63" spans="1:13" s="6" customFormat="1" ht="16">
       <c r="A63" s="12" t="s">
         <v>242</v>
       </c>
@@ -6766,7 +6773,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M110">
+  <sortState ref="A2:M110">
     <sortCondition ref="D2:D110"/>
     <sortCondition ref="I2:I110"/>
   </sortState>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="2580" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="23480" windowHeight="20960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="411">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -981,9 +981,6 @@
     <t>AMPH</t>
   </si>
   <si>
-    <t>MAMM</t>
-  </si>
-  <si>
     <t>MAMM4</t>
   </si>
   <si>
@@ -1234,6 +1231,27 @@
   </si>
   <si>
     <t>Xenopus tropicalis</t>
+  </si>
+  <si>
+    <t>IFNL-Amphibian</t>
+  </si>
+  <si>
+    <t>IFNL-Reptile</t>
+  </si>
+  <si>
+    <t>IFNL-Aves</t>
+  </si>
+  <si>
+    <t>IFNL-Mammal</t>
+  </si>
+  <si>
+    <t>IFNLa-Mammal</t>
+  </si>
+  <si>
+    <t>IFNLa-Reptile</t>
+  </si>
+  <si>
+    <t>Pelodiscus sinensis</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1421,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="463">
+  <cellStyleXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1887,7 +1929,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="463">
+  <cellStyles count="487">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2119,6 +2161,18 @@
     <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2350,6 +2404,18 @@
     <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2697,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2730,7 +2796,7 @@
         <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>69</v>
@@ -2762,7 +2828,7 @@
         <v>311</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
@@ -2770,7 +2836,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -2785,11 +2851,11 @@
         <v>312</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2806,14 +2872,16 @@
         <v>313</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2827,11 +2895,11 @@
         <v>314</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2848,11 +2916,11 @@
         <v>315</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2869,11 +2937,11 @@
         <v>316</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2890,11 +2958,11 @@
         <v>317</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2911,11 +2979,11 @@
         <v>318</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2932,22 +3000,22 @@
         <v>250</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>115</v>
@@ -2973,22 +3041,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>306</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>78</v>
@@ -3012,22 +3080,22 @@
         <v>251</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>306</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>78</v>
@@ -3051,22 +3119,22 @@
         <v>252</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>306</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>78</v>
@@ -3090,22 +3158,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>74</v>
@@ -3129,22 +3197,22 @@
         <v>256</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>74</v>
@@ -3170,22 +3238,22 @@
         <v>224</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>74</v>
@@ -3209,22 +3277,22 @@
         <v>225</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>74</v>
@@ -3248,22 +3316,22 @@
         <v>226</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>74</v>
@@ -3287,22 +3355,22 @@
         <v>233</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>115</v>
@@ -3328,22 +3396,22 @@
         <v>227</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>108</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>74</v>
@@ -3367,22 +3435,22 @@
         <v>253</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>78</v>
@@ -3406,22 +3474,22 @@
         <v>258</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>74</v>
@@ -3445,22 +3513,22 @@
         <v>230</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>147</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>74</v>
@@ -3484,22 +3552,22 @@
         <v>262</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>78</v>
@@ -3523,13 +3591,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>77</v>
@@ -3538,7 +3606,7 @@
         <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>78</v>
@@ -3562,22 +3630,22 @@
         <v>254</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>78</v>
@@ -3601,22 +3669,22 @@
         <v>221</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>78</v>
@@ -3640,22 +3708,22 @@
         <v>222</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>78</v>
@@ -3681,22 +3749,22 @@
         <v>304</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>78</v>
@@ -3720,22 +3788,22 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>78</v>
@@ -3759,22 +3827,22 @@
         <v>223</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>78</v>
@@ -3798,22 +3866,22 @@
         <v>255</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>78</v>
@@ -3837,22 +3905,22 @@
         <v>218</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>105</v>
@@ -3876,22 +3944,22 @@
         <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>105</v>
@@ -3917,22 +3985,22 @@
         <v>257</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>74</v>
@@ -3958,22 +4026,22 @@
         <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>74</v>
@@ -3997,22 +4065,22 @@
         <v>260</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>74</v>
@@ -4036,22 +4104,22 @@
         <v>228</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>74</v>
@@ -4075,22 +4143,22 @@
         <v>229</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>74</v>
@@ -4114,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>74</v>
@@ -4153,22 +4221,22 @@
         <v>231</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>74</v>
@@ -4192,22 +4260,22 @@
         <v>220</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>105</v>
@@ -4233,22 +4301,22 @@
         <v>232</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>74</v>
@@ -4272,22 +4340,22 @@
         <v>264</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>74</v>
@@ -4313,22 +4381,22 @@
         <v>243</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>129</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>74</v>
@@ -4352,22 +4420,22 @@
         <v>244</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>74</v>
@@ -4391,22 +4459,22 @@
         <v>245</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>74</v>
@@ -4430,22 +4498,22 @@
         <v>246</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>74</v>
@@ -4469,22 +4537,22 @@
         <v>259</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>74</v>
@@ -4508,22 +4576,22 @@
         <v>234</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>78</v>
@@ -4547,13 +4615,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>117</v>
@@ -4562,7 +4630,7 @@
         <v>183</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>78</v>
@@ -4586,22 +4654,22 @@
         <v>265</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>78</v>
@@ -4625,22 +4693,22 @@
         <v>235</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>78</v>
@@ -4661,25 +4729,25 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>331</v>
-      </c>
       <c r="F54" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>78</v>
@@ -4703,22 +4771,22 @@
         <v>236</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>78</v>
@@ -4744,22 +4812,22 @@
         <v>237</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>78</v>
@@ -4783,22 +4851,22 @@
         <v>263</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>103</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>105</v>
@@ -4824,22 +4892,22 @@
         <v>5</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>78</v>
@@ -4863,13 +4931,13 @@
         <v>238</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>83</v>
@@ -4878,7 +4946,7 @@
         <v>192</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>78</v>
@@ -4902,22 +4970,22 @@
         <v>239</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>78</v>
@@ -4941,13 +5009,13 @@
         <v>240</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>83</v>
@@ -4956,7 +5024,7 @@
         <v>195</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>78</v>
@@ -4980,22 +5048,22 @@
         <v>241</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>78</v>
@@ -5019,22 +5087,22 @@
         <v>242</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>78</v>
@@ -5058,22 +5126,22 @@
         <v>247</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>74</v>
@@ -5097,22 +5165,22 @@
         <v>248</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>74</v>
@@ -5136,22 +5204,22 @@
         <v>249</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>74</v>
@@ -5175,17 +5243,17 @@
         <v>272</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>132</v>
@@ -5214,13 +5282,13 @@
         <v>278</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
@@ -5249,13 +5317,13 @@
         <v>279</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
@@ -5284,13 +5352,13 @@
         <v>280</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
@@ -5319,13 +5387,13 @@
         <v>281</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
@@ -5354,17 +5422,17 @@
         <v>273</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>129</v>
@@ -5391,13 +5459,13 @@
         <v>283</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
@@ -5426,13 +5494,13 @@
         <v>284</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
@@ -5461,13 +5529,13 @@
         <v>285</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
@@ -5496,17 +5564,17 @@
         <v>274</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>80</v>
@@ -5533,17 +5601,17 @@
         <v>275</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>80</v>
@@ -5570,13 +5638,13 @@
         <v>282</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
@@ -5605,17 +5673,17 @@
         <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>155</v>
@@ -5644,17 +5712,17 @@
         <v>276</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>108</v>
@@ -5681,13 +5749,13 @@
         <v>302</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
@@ -5716,17 +5784,17 @@
         <v>266</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>142</v>
@@ -5753,17 +5821,17 @@
         <v>300</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>158</v>
@@ -5792,17 +5860,17 @@
         <v>267</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>77</v>
@@ -5829,17 +5897,17 @@
         <v>297</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>77</v>
@@ -5866,17 +5934,17 @@
         <v>298</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>77</v>
@@ -5905,13 +5973,13 @@
         <v>286</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
@@ -5940,13 +6008,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
@@ -5975,13 +6043,13 @@
         <v>288</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
@@ -6010,13 +6078,13 @@
         <v>289</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
@@ -6045,13 +6113,13 @@
         <v>290</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
@@ -6080,13 +6148,13 @@
         <v>291</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
@@ -6115,19 +6183,19 @@
         <v>305</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>77</v>
@@ -6154,17 +6222,17 @@
         <v>296</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>104</v>
@@ -6193,17 +6261,17 @@
         <v>268</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>83</v>
@@ -6230,13 +6298,13 @@
         <v>269</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
@@ -6267,13 +6335,13 @@
         <v>270</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
@@ -6304,17 +6372,17 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>83</v>
@@ -6339,17 +6407,17 @@
         <v>268</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>83</v>
@@ -6374,13 +6442,13 @@
         <v>293</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
@@ -6409,13 +6477,13 @@
         <v>294</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
@@ -6444,13 +6512,13 @@
         <v>188</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
@@ -6479,13 +6547,13 @@
         <v>295</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
@@ -6514,17 +6582,17 @@
         <v>271</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>90</v>
@@ -6551,13 +6619,13 @@
         <v>271</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
@@ -6586,17 +6654,17 @@
         <v>277</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>93</v>
@@ -6623,17 +6691,17 @@
         <v>299</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>93</v>
@@ -6660,13 +6728,13 @@
         <v>301</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
@@ -6695,19 +6763,19 @@
         <v>217</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>155</v>
@@ -6736,19 +6804,19 @@
         <v>176</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>158</v>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D8795-1F28-1F4F-A1C0-FDB289475FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC14A8-F11A-B447-B26E-900DC95DA104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I42" sqref="A1:P127"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC14A8-F11A-B447-B26E-900DC95DA104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76A81E-585F-FF4A-AA56-22EFDFF0EF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="426">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D106" sqref="A1:P127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7513,7 +7513,9 @@
       <c r="A114" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C114" s="5" t="s">
         <v>397</v>
       </c>
@@ -7527,7 +7529,9 @@
       <c r="G114" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H114" s="5"/>
+      <c r="H114" s="5">
+        <v>2</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5" t="s">
@@ -7547,7 +7551,9 @@
       <c r="A115" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C115" s="5" t="s">
         <v>317</v>
       </c>
@@ -7561,7 +7567,9 @@
       <c r="G115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H115" s="5"/>
+      <c r="H115" s="5">
+        <v>2</v>
+      </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5" t="s">
@@ -7583,7 +7591,9 @@
       <c r="A116" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C116" s="5" t="s">
         <v>397</v>
       </c>
@@ -7597,7 +7607,9 @@
       <c r="G116" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H116" s="5"/>
+      <c r="H116" s="5">
+        <v>2</v>
+      </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5" t="s">
@@ -7617,7 +7629,9 @@
       <c r="A117" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C117" s="5" t="s">
         <v>180</v>
       </c>
@@ -7631,7 +7645,9 @@
       <c r="G117" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H117" s="5"/>
+      <c r="H117" s="5">
+        <v>2</v>
+      </c>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5" t="s">
@@ -7647,7 +7663,9 @@
       <c r="A118" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C118" s="5" t="s">
         <v>184</v>
       </c>
@@ -7661,7 +7679,9 @@
       <c r="G118" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H118" s="5"/>
+      <c r="H118" s="5">
+        <v>2</v>
+      </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5" t="s">
@@ -7677,7 +7697,9 @@
       <c r="A119" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="B119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C119" s="5" t="s">
         <v>184</v>
       </c>
@@ -7691,7 +7713,9 @@
       <c r="G119" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H119" s="5"/>
+      <c r="H119" s="5">
+        <v>2</v>
+      </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5" t="s">
@@ -7707,7 +7731,9 @@
       <c r="A120" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C120" s="5" t="s">
         <v>395</v>
       </c>
@@ -7721,7 +7747,9 @@
       <c r="G120" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H120" s="5"/>
+      <c r="H120" s="5">
+        <v>2</v>
+      </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5" t="s">
@@ -7737,7 +7765,9 @@
       <c r="A121" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C121" s="5" t="s">
         <v>298</v>
       </c>
@@ -7751,7 +7781,9 @@
       <c r="G121" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H121" s="5"/>
+      <c r="H121" s="5">
+        <v>2</v>
+      </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
@@ -7767,7 +7799,9 @@
       <c r="A122" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="B122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C122" s="5" t="s">
         <v>396</v>
       </c>
@@ -7781,7 +7815,9 @@
       <c r="G122" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H122" s="5"/>
+      <c r="H122" s="5">
+        <v>2</v>
+      </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
@@ -7799,7 +7835,9 @@
       <c r="A123" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="B123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C123" s="5" t="s">
         <v>396</v>
       </c>
@@ -7813,7 +7851,9 @@
       <c r="G123" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H123" s="5"/>
+      <c r="H123" s="5">
+        <v>2</v>
+      </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5" t="s">
@@ -7831,7 +7871,9 @@
       <c r="A124" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C124" s="5" t="s">
         <v>396</v>
       </c>
@@ -7845,7 +7887,9 @@
       <c r="G124" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H124" s="5"/>
+      <c r="H124" s="5">
+        <v>2</v>
+      </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5" t="s">
@@ -7863,7 +7907,9 @@
       <c r="A125" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C125" s="5" t="s">
         <v>398</v>
       </c>
@@ -7877,7 +7923,9 @@
       <c r="G125" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H125" s="5"/>
+      <c r="H125" s="5">
+        <v>2</v>
+      </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5" t="s">
@@ -7893,7 +7941,9 @@
       <c r="A126" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C126" s="5" t="s">
         <v>303</v>
       </c>
@@ -7907,7 +7957,9 @@
       <c r="G126" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H126" s="5"/>
+      <c r="H126" s="5">
+        <v>2</v>
+      </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5" t="s">
@@ -7923,7 +7975,9 @@
       <c r="A127" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="C127" s="5" t="s">
         <v>296</v>
       </c>
@@ -7937,7 +7991,9 @@
       <c r="G127" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H127" s="5"/>
+      <c r="H127" s="5">
+        <v>2</v>
+      </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5" t="s">

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76A81E-585F-FF4A-AA56-22EFDFF0EF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E880D-9F16-E647-8B7A-DF8185052A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D106" sqref="A1:P127"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7552,7 +7552,7 @@
         <v>384</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>317</v>
@@ -7568,7 +7568,7 @@
         <v>340</v>
       </c>
       <c r="H115" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -7732,7 +7732,7 @@
         <v>388</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>395</v>
@@ -7748,7 +7748,7 @@
         <v>340</v>
       </c>
       <c r="H120" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E880D-9F16-E647-8B7A-DF8185052A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980D8A1-88AE-334D-A68B-A92F69EAC9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="433">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1303,13 +1303,34 @@
   </si>
   <si>
     <t>IFNL-A-Squamata</t>
+  </si>
+  <si>
+    <t>XM_020972372</t>
+  </si>
+  <si>
+    <t>Phascolarctos cinereus</t>
+  </si>
+  <si>
+    <t>Phascolarctidae</t>
+  </si>
+  <si>
+    <t>Phascolarctos</t>
+  </si>
+  <si>
+    <t>XP_020828031.1</t>
+  </si>
+  <si>
+    <t>XM_021168771</t>
+  </si>
+  <si>
+    <t>Mus caroli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1439,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1991,7 +2018,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2052,6 +2079,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="487">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2886,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7467,13 +7495,13 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="25" t="s">
-        <v>169</v>
+        <v>426</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -7486,7 +7514,7 @@
         <v>340</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="16"/>
@@ -7494,30 +7522,28 @@
         <v>282</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>156</v>
+        <v>428</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>155</v>
+        <v>429</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P113" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="25" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -7529,33 +7555,39 @@
       <c r="G114" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H114" s="5">
-        <v>2</v>
+      <c r="H114" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="J114" s="16"/>
       <c r="K114" s="5" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M114" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="N114" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -7568,34 +7600,32 @@
         <v>340</v>
       </c>
       <c r="H115" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
-        <v>90</v>
+        <v>399</v>
       </c>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="25" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -7608,32 +7638,34 @@
         <v>340</v>
       </c>
       <c r="H116" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M116" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="N116" s="5" t="s">
-        <v>399</v>
+        <v>90</v>
       </c>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="25" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>180</v>
+        <v>397</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
@@ -7651,23 +7683,27 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L117" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="N117" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -7685,7 +7721,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -7695,7 +7731,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>377</v>
@@ -7729,13 +7765,13 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>395</v>
+        <v>184</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -7748,12 +7784,12 @@
         <v>340</v>
       </c>
       <c r="H120" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -7763,13 +7799,13 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -7782,12 +7818,12 @@
         <v>340</v>
       </c>
       <c r="H121" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -7797,13 +7833,13 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -7823,9 +7859,7 @@
       <c r="K122" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L122" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
@@ -7833,7 +7867,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>377</v>
@@ -7869,7 +7903,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>377</v>
@@ -7905,13 +7939,13 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -7931,7 +7965,9 @@
       <c r="K125" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L125" s="5"/>
+      <c r="L125" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -7939,13 +7975,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -7973,13 +8009,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="25" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -7999,21 +8035,88 @@
       <c r="K127" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L127" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M127" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
     </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+    </row>
+    <row r="129" spans="1:14" ht="17">
+      <c r="A129" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H129" s="5">
+        <v>2</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P113">
-    <sortCondition ref="L2:L113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P114">
+    <sortCondition ref="L2:L114"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980D8A1-88AE-334D-A68B-A92F69EAC9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1CD48-4E35-B44E-9419-BDCA50FD67E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="519">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1324,13 +1324,271 @@
   </si>
   <si>
     <t>Mus caroli</t>
+  </si>
+  <si>
+    <t>Desmodus rotundus</t>
+  </si>
+  <si>
+    <t>Desmodus</t>
+  </si>
+  <si>
+    <t>XM_024577416</t>
+  </si>
+  <si>
+    <t>Myotis davidii</t>
+  </si>
+  <si>
+    <t>XM_015557658</t>
+  </si>
+  <si>
+    <t>Equus asinus</t>
+  </si>
+  <si>
+    <t>XM_014832969</t>
+  </si>
+  <si>
+    <t>XM_014541703</t>
+  </si>
+  <si>
+    <t>Canis lupus</t>
+  </si>
+  <si>
+    <t>XM_014117025</t>
+  </si>
+  <si>
+    <t>Pteropus alecto</t>
+  </si>
+  <si>
+    <t>XM_015589198</t>
+  </si>
+  <si>
+    <t>XM_010600327</t>
+  </si>
+  <si>
+    <t>HQ201955</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NM_001040680</t>
+  </si>
+  <si>
+    <t>NM_001114853</t>
+  </si>
+  <si>
+    <t>NM_001276259</t>
+  </si>
+  <si>
+    <t>NM_001290171</t>
+  </si>
+  <si>
+    <t>NW_016529666</t>
+  </si>
+  <si>
+    <t>XM_004396491</t>
+  </si>
+  <si>
+    <t>XM_004396492</t>
+  </si>
+  <si>
+    <t>XM_004430284</t>
+  </si>
+  <si>
+    <t>XM_004595181</t>
+  </si>
+  <si>
+    <t>XM_004617294</t>
+  </si>
+  <si>
+    <t>XM_004710310</t>
+  </si>
+  <si>
+    <t>XM_004710311</t>
+  </si>
+  <si>
+    <t>XM_004710487</t>
+  </si>
+  <si>
+    <t>XM_004710488</t>
+  </si>
+  <si>
+    <t>XM_005219126</t>
+  </si>
+  <si>
+    <t>XM_005886332</t>
+  </si>
+  <si>
+    <t>XM_005886333</t>
+  </si>
+  <si>
+    <t>XM_006096748</t>
+  </si>
+  <si>
+    <t>XM_006540121</t>
+  </si>
+  <si>
+    <t>XM_006540130</t>
+  </si>
+  <si>
+    <t>XM_006761471</t>
+  </si>
+  <si>
+    <t>XM_006878034</t>
+  </si>
+  <si>
+    <t>XM_006901124</t>
+  </si>
+  <si>
+    <t>XM_006911731</t>
+  </si>
+  <si>
+    <t>XM_007491889</t>
+  </si>
+  <si>
+    <t>XM_007524024</t>
+  </si>
+  <si>
+    <t>XM_007955548</t>
+  </si>
+  <si>
+    <t>XM_007996757</t>
+  </si>
+  <si>
+    <t>XM_008140039</t>
+  </si>
+  <si>
+    <t>XM_008161658</t>
+  </si>
+  <si>
+    <t>XM_010600391</t>
+  </si>
+  <si>
+    <t>XM_010972051</t>
+  </si>
+  <si>
+    <t>XM_011386751</t>
+  </si>
+  <si>
+    <t>XM_011952424</t>
+  </si>
+  <si>
+    <t>XM_012547246</t>
+  </si>
+  <si>
+    <t>XM_012730587</t>
+  </si>
+  <si>
+    <t>XM_014541702</t>
+  </si>
+  <si>
+    <t>XM_015589199</t>
+  </si>
+  <si>
+    <t>XM_016165226</t>
+  </si>
+  <si>
+    <t>XM_016166771</t>
+  </si>
+  <si>
+    <t>XM_016209132</t>
+  </si>
+  <si>
+    <t>XM_016209157</t>
+  </si>
+  <si>
+    <t>XM_016934446</t>
+  </si>
+  <si>
+    <t>XM_016947939</t>
+  </si>
+  <si>
+    <t>XM_017503067</t>
+  </si>
+  <si>
+    <t>XM_018063271</t>
+  </si>
+  <si>
+    <t>XM_019015012</t>
+  </si>
+  <si>
+    <t>XM_019431990</t>
+  </si>
+  <si>
+    <t>XM_019666252</t>
+  </si>
+  <si>
+    <t>XM_019666264</t>
+  </si>
+  <si>
+    <t>XM_019666267</t>
+  </si>
+  <si>
+    <t>XM_021210483</t>
+  </si>
+  <si>
+    <t>XM_021700961</t>
+  </si>
+  <si>
+    <t>XM_021931090</t>
+  </si>
+  <si>
+    <t>XM_022525015</t>
+  </si>
+  <si>
+    <t>XM_023760554</t>
+  </si>
+  <si>
+    <t>XM_023760555</t>
+  </si>
+  <si>
+    <t>XM_023760578</t>
+  </si>
+  <si>
+    <t>XM_024351462</t>
+  </si>
+  <si>
+    <t>XM_024577417</t>
+  </si>
+  <si>
+    <t>XM_024577418</t>
+  </si>
+  <si>
+    <t>XM_024577451</t>
+  </si>
+  <si>
+    <t>XM_026491561</t>
+  </si>
+  <si>
+    <t>XM_028529967</t>
+  </si>
+  <si>
+    <t>XM_028529971</t>
+  </si>
+  <si>
+    <t>XM_028529976</t>
+  </si>
+  <si>
+    <t>XM_028529978</t>
+  </si>
+  <si>
+    <t>XM_028530311</t>
+  </si>
+  <si>
+    <t>Odobenus rosmarus</t>
+  </si>
+  <si>
+    <t>Ceratotherium simum</t>
+  </si>
+  <si>
+    <t>Echinops telfairi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1439,14 +1697,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,6 +1771,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2079,7 +2337,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="487">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2574,6 +2832,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFD5FC79"/>
       <color rgb="FFE9C8FE"/>
       <color rgb="FFFFDFED"/>
       <color rgb="FFFF5BFF"/>
@@ -2914,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A148" sqref="A1:O148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4988,14 +5247,14 @@
       <c r="P49" s="11"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="27" t="s">
-        <v>248</v>
+      <c r="A50" s="32" t="s">
+        <v>462</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>303</v>
+      <c r="C50" t="s">
+        <v>179</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
@@ -5015,29 +5274,16 @@
       <c r="K50" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="11"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
@@ -5055,31 +5301,31 @@
       <c r="I51" s="11"/>
       <c r="J51" s="18"/>
       <c r="K51" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="P51" s="11"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="27" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
@@ -5106,22 +5352,22 @@
         <v>116</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="P52" s="11"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="27" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
@@ -5145,25 +5391,25 @@
         <v>76</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="O53" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="P53" s="11"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="27" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
@@ -5187,25 +5433,25 @@
         <v>76</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P54" s="11"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
@@ -5229,27 +5475,25 @@
         <v>76</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>164</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
@@ -5273,25 +5517,27 @@
         <v>76</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P56" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="27" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
@@ -5309,33 +5555,31 @@
       <c r="I57" s="11"/>
       <c r="J57" s="18"/>
       <c r="K57" s="11" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>163</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="27" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
@@ -5353,31 +5597,33 @@
       <c r="I58" s="11"/>
       <c r="J58" s="18"/>
       <c r="K58" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P58" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="27" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
@@ -5401,25 +5647,25 @@
         <v>82</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
@@ -5443,25 +5689,25 @@
         <v>82</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
@@ -5485,25 +5731,25 @@
         <v>82</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O61" s="11" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
@@ -5527,25 +5773,25 @@
         <v>82</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="P62" s="11"/>
     </row>
-    <row r="63" spans="1:16" s="6" customFormat="1">
+    <row r="63" spans="1:16">
       <c r="A63" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
@@ -5566,28 +5812,28 @@
         <v>77</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P63" s="11"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" s="6" customFormat="1">
       <c r="A64" s="27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
@@ -5605,31 +5851,31 @@
       <c r="I64" s="11"/>
       <c r="J64" s="18"/>
       <c r="K64" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
@@ -5653,25 +5899,25 @@
         <v>92</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P65" s="11"/>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="27" t="s">
-        <v>238</v>
+        <v>460</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>317</v>
+        <v>518</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
@@ -5689,95 +5935,111 @@
       <c r="I66" s="11"/>
       <c r="J66" s="18"/>
       <c r="K66" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H67" s="18">
+        <v>2</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M67" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H68" s="18">
+        <v>2</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M68" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
+      <c r="P68" s="11"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="30" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="D69" s="31"/>
+        <v>421</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="E69" s="31" t="s">
         <v>352</v>
       </c>
@@ -5785,7 +6047,7 @@
         <v>326</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
@@ -5798,102 +6060,78 @@
       <c r="P69" s="31"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="28" t="s">
         <v>275</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="29" t="s">
-        <v>402</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D72" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="E72" s="4" t="s">
         <v>352</v>
       </c>
@@ -5907,29 +6145,33 @@
       <c r="I72" s="3"/>
       <c r="J72" s="21"/>
       <c r="K72" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="29" t="s">
-        <v>404</v>
+      <c r="A73" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -5951,23 +6193,27 @@
         <v>131</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
@@ -5989,23 +6235,23 @@
         <v>131</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>183</v>
+        <v>403</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
@@ -6027,23 +6273,23 @@
         <v>131</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="28" t="s">
-        <v>261</v>
+      <c r="A76" s="29" t="s">
+        <v>405</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -6062,28 +6308,26 @@
         <v>73</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O76" s="4"/>
       <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>408</v>
+        <v>183</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -6102,26 +6346,26 @@
         <v>73</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="29" t="s">
-        <v>409</v>
+      <c r="A78" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
@@ -6143,17 +6387,19 @@
         <v>128</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O78" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="29" t="s">
-        <v>266</v>
+        <v>407</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>379</v>
@@ -6190,14 +6436,14 @@
       <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="28" t="s">
-        <v>262</v>
+      <c r="A80" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -6216,28 +6462,26 @@
         <v>73</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="28" t="s">
-        <v>263</v>
+      <c r="A81" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -6256,28 +6500,26 @@
         <v>73</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="29" t="s">
-        <v>410</v>
+      <c r="A82" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -6299,23 +6541,25 @@
         <v>79</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O82" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="P82" s="4"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="28" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
@@ -6331,33 +6575,31 @@
       <c r="I83" s="4"/>
       <c r="J83" s="19"/>
       <c r="K83" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P83" s="4"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="28" t="s">
-        <v>264</v>
+      <c r="A84" s="29" t="s">
+        <v>410</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -6376,28 +6618,26 @@
         <v>73</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O84" s="4"/>
       <c r="P84" s="4"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="29" t="s">
-        <v>278</v>
+      <c r="A85" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
@@ -6413,29 +6653,33 @@
       <c r="I85" s="4"/>
       <c r="J85" s="19"/>
       <c r="K85" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="28" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -6451,31 +6695,31 @@
       <c r="I86" s="3"/>
       <c r="J86" s="21"/>
       <c r="K86" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="P86" s="4"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="28" t="s">
-        <v>277</v>
+      <c r="A87" s="29" t="s">
+        <v>278</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -6491,33 +6735,29 @@
       <c r="I87" s="4"/>
       <c r="J87" s="19"/>
       <c r="K87" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P87" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -6536,28 +6776,28 @@
         <v>77</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="28" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -6573,45 +6813,47 @@
       <c r="I89" s="4"/>
       <c r="J89" s="19"/>
       <c r="K89" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P89" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="29" t="s">
-        <v>411</v>
+      <c r="A90" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H90" s="19"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="19"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="21"/>
       <c r="K90" s="4" t="s">
         <v>77</v>
       </c>
@@ -6622,14 +6864,16 @@
         <v>116</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O90" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="29" t="s">
-        <v>412</v>
+      <c r="A91" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>379</v>
@@ -6641,15 +6885,15 @@
       <c r="E91" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="4" t="s">
         <v>326</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H91" s="19"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="21"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="19"/>
       <c r="K91" s="4" t="s">
         <v>77</v>
       </c>
@@ -6662,18 +6906,20 @@
       <c r="N91" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="O91" s="4"/>
+      <c r="O91" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="29" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -6695,23 +6941,23 @@
         <v>76</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="29" t="s">
-        <v>268</v>
+        <v>412</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
@@ -6733,23 +6979,23 @@
         <v>76</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="29" t="s">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
@@ -6774,20 +7020,20 @@
         <v>75</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="29" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
@@ -6809,23 +7055,23 @@
         <v>76</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="28" t="s">
-        <v>281</v>
+      <c r="A96" s="29" t="s">
+        <v>413</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -6838,12 +7084,8 @@
         <v>340</v>
       </c>
       <c r="H96" s="19"/>
-      <c r="I96" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J96" s="19">
-        <v>1</v>
-      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="19"/>
       <c r="K96" s="4" t="s">
         <v>77</v>
       </c>
@@ -6854,22 +7096,20 @@
         <v>75</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>283</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="28" t="s">
-        <v>273</v>
+      <c r="A97" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
@@ -6885,33 +7125,29 @@
       <c r="I97" s="3"/>
       <c r="J97" s="21"/>
       <c r="K97" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P97" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="28" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
@@ -6924,34 +7160,38 @@
         <v>340</v>
       </c>
       <c r="H98" s="19"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="19"/>
+      <c r="I98" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J98" s="19">
+        <v>1</v>
+      </c>
       <c r="K98" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="28" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
@@ -6967,65 +7207,65 @@
       <c r="I99" s="3"/>
       <c r="J99" s="21"/>
       <c r="K99" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P99" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="28" t="s">
-        <v>258</v>
+        <v>445</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>184</v>
+        <v>318</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H100" s="19"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="19"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="21"/>
       <c r="K100" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="29" t="s">
-        <v>269</v>
+      <c r="A101" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>379</v>
@@ -7037,15 +7277,15 @@
       <c r="E101" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>326</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H101" s="19"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="21"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="19"/>
       <c r="K101" s="4" t="s">
         <v>77</v>
       </c>
@@ -7058,32 +7298,34 @@
       <c r="N101" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O101" s="4"/>
+      <c r="O101" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="P101" s="4"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="29" t="s">
-        <v>256</v>
+      <c r="A102" s="28" t="s">
+        <v>257</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H102" s="19"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="19"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="21"/>
       <c r="K102" s="4" t="s">
         <v>77</v>
       </c>
@@ -7091,37 +7333,39 @@
         <v>82</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O102" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="29" t="s">
-        <v>270</v>
+      <c r="A103" s="28" t="s">
+        <v>258</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="4" t="s">
         <v>326</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H103" s="19"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="21"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="19"/>
       <c r="K103" s="4" t="s">
         <v>77</v>
       </c>
@@ -7129,37 +7373,39 @@
         <v>82</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O103" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="P103" s="4"/>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H104" s="19"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="19"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="21"/>
       <c r="K104" s="4" t="s">
         <v>77</v>
       </c>
@@ -7167,37 +7413,37 @@
         <v>82</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="29" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="4" t="s">
         <v>326</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H105" s="19"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="21"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="19"/>
       <c r="K105" s="4" t="s">
         <v>77</v>
       </c>
@@ -7205,61 +7451,53 @@
         <v>82</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="29" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H106" s="19"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="19"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="21"/>
       <c r="K106" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="28" t="s">
-        <v>259</v>
+      <c r="A107" s="29" t="s">
+        <v>270</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
@@ -7278,28 +7516,26 @@
         <v>77</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -7318,26 +7554,26 @@
         <v>77</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="28" t="s">
-        <v>265</v>
+      <c r="A109" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>320</v>
+        <v>185</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
@@ -7353,31 +7589,29 @@
       <c r="I109" s="3"/>
       <c r="J109" s="21"/>
       <c r="K109" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O109" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="28" t="s">
-        <v>276</v>
+      <c r="A110" s="29" t="s">
+        <v>453</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
@@ -7396,278 +7630,260 @@
         <v>73</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O110" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="29" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="4" t="s">
         <v>326</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="21"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="19"/>
       <c r="K111" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O112" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P112" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="A112" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P112" s="4"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="N113" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="P113" s="5"/>
+      <c r="A113" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N114" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="O114" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="A114" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P114" s="4"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H115" s="5">
-        <v>2</v>
-      </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
+      <c r="A115" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H116" s="5">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5" t="s">
+      <c r="A116" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="L116" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N116" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
+      <c r="M116" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="25" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="E117" s="5" t="s">
         <v>352</v>
       </c>
@@ -7677,33 +7893,39 @@
       <c r="G117" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H117" s="5">
-        <v>2</v>
+      <c r="H117" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="J117" s="16"/>
       <c r="K117" s="5" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M117" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="N117" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="O117" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="25" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>180</v>
+        <v>427</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -7715,29 +7937,37 @@
       <c r="G118" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H118" s="5">
-        <v>2</v>
+      <c r="H118" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="J118" s="16"/>
       <c r="K118" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="25" t="s">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -7749,29 +7979,39 @@
       <c r="G119" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H119" s="5">
-        <v>2</v>
+      <c r="H119" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="J119" s="16"/>
       <c r="K119" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O119" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>184</v>
+        <v>397</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -7791,21 +8031,25 @@
       <c r="K120" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L120" s="5"/>
+      <c r="L120" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="N120" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>374</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -7823,23 +8067,29 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="25" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -7857,23 +8107,27 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L122" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="N122" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="25" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>396</v>
+        <v>180</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -7893,9 +8147,7 @@
       <c r="K123" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L123" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
@@ -7903,13 +8155,13 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="25" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
@@ -7927,11 +8179,9 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
@@ -7939,13 +8189,13 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="25" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -7963,11 +8213,9 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -7975,13 +8223,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="25" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -7994,12 +8242,12 @@
         <v>340</v>
       </c>
       <c r="H126" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8009,13 +8257,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="25" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -8043,13 +8291,13 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="25" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
@@ -8070,27 +8318,24 @@
         <v>73</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
     </row>
-    <row r="129" spans="1:14" ht="17">
-      <c r="A129" s="32" t="s">
-        <v>431</v>
+    <row r="129" spans="1:16">
+      <c r="A129" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C129" t="s">
-        <v>432</v>
-      </c>
+      <c r="C129" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>352</v>
       </c>
@@ -8103,20 +8348,1302 @@
       <c r="H129" s="5">
         <v>2</v>
       </c>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H130" s="5">
+        <v>2</v>
+      </c>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H131" s="5">
+        <v>2</v>
+      </c>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H132" s="5">
+        <v>2</v>
+      </c>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H133" s="5">
+        <v>2</v>
+      </c>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H134" s="5">
+        <v>2</v>
+      </c>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L129" s="5" t="s">
+      <c r="L134" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5" t="s">
+      <c r="M134" s="5"/>
+      <c r="N134" s="5" t="s">
         <v>399</v>
       </c>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H135" s="5">
+        <v>1</v>
+      </c>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H136" s="5">
+        <v>2</v>
+      </c>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H137" s="5">
+        <v>1</v>
+      </c>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1</v>
+      </c>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H140" s="5">
+        <v>2</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H141" s="5">
+        <v>2</v>
+      </c>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H142" s="5">
+        <v>2</v>
+      </c>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H143" s="5">
+        <v>1</v>
+      </c>
+      <c r="I143" s="5"/>
+      <c r="K143" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H144" s="5">
+        <v>2</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L144" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H145" s="5">
+        <v>1</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H146" s="5">
+        <v>2</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H147" s="5">
+        <v>1</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H148" s="5">
+        <v>2</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="B149" t="s">
+        <v>447</v>
+      </c>
+      <c r="C149" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B150" t="s">
+        <v>447</v>
+      </c>
+      <c r="C150" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B152" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="B153" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B154" t="s">
+        <v>447</v>
+      </c>
+      <c r="C154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="B155" t="s">
+        <v>447</v>
+      </c>
+      <c r="C155" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B156" t="s">
+        <v>447</v>
+      </c>
+      <c r="C156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B157" t="s">
+        <v>447</v>
+      </c>
+      <c r="C157" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B158" t="s">
+        <v>447</v>
+      </c>
+      <c r="C158" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="B159" t="s">
+        <v>447</v>
+      </c>
+      <c r="C159" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B160" t="s">
+        <v>447</v>
+      </c>
+      <c r="C160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>447</v>
+      </c>
+      <c r="C161" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B162" t="s">
+        <v>447</v>
+      </c>
+      <c r="C162" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>447</v>
+      </c>
+      <c r="C163" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B164" t="s">
+        <v>447</v>
+      </c>
+      <c r="C164" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="B165" t="s">
+        <v>447</v>
+      </c>
+      <c r="C165" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" t="s">
+        <v>447</v>
+      </c>
+      <c r="C166" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B167" t="s">
+        <v>447</v>
+      </c>
+      <c r="C167" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B168" t="s">
+        <v>447</v>
+      </c>
+      <c r="C168" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" t="s">
+        <v>447</v>
+      </c>
+      <c r="C169" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B170" t="s">
+        <v>447</v>
+      </c>
+      <c r="C170" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="B171" t="s">
+        <v>447</v>
+      </c>
+      <c r="C171" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" t="s">
+        <v>447</v>
+      </c>
+      <c r="C172" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B173" t="s">
+        <v>447</v>
+      </c>
+      <c r="C173" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B175" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B176" t="s">
+        <v>447</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B177" t="s">
+        <v>447</v>
+      </c>
+      <c r="C177" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B178" t="s">
+        <v>447</v>
+      </c>
+      <c r="C178" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="B179" t="s">
+        <v>447</v>
+      </c>
+      <c r="C179" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="B180" t="s">
+        <v>447</v>
+      </c>
+      <c r="C180" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="B181" t="s">
+        <v>447</v>
+      </c>
+      <c r="C181" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="B182" t="s">
+        <v>447</v>
+      </c>
+      <c r="C182" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B183" t="s">
+        <v>447</v>
+      </c>
+      <c r="C183" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B184" t="s">
+        <v>447</v>
+      </c>
+      <c r="C184" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B185" t="s">
+        <v>447</v>
+      </c>
+      <c r="C185" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="B186" t="s">
+        <v>447</v>
+      </c>
+      <c r="C186" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="B187" t="s">
+        <v>447</v>
+      </c>
+      <c r="C187" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" t="s">
+        <v>447</v>
+      </c>
+      <c r="C188" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="B189" t="s">
+        <v>447</v>
+      </c>
+      <c r="C189" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B190" t="s">
+        <v>447</v>
+      </c>
+      <c r="C190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B191" t="s">
+        <v>447</v>
+      </c>
+      <c r="C191" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="B192" t="s">
+        <v>447</v>
+      </c>
+      <c r="C192" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="B193" t="s">
+        <v>447</v>
+      </c>
+      <c r="C193" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="B194" t="s">
+        <v>447</v>
+      </c>
+      <c r="C194" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="B195" t="s">
+        <v>447</v>
+      </c>
+      <c r="C195" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="B196" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="B197" t="s">
+        <v>447</v>
+      </c>
+      <c r="C197" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="B198" t="s">
+        <v>447</v>
+      </c>
+      <c r="C198" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="B199" t="s">
+        <v>447</v>
+      </c>
+      <c r="C199" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B200" t="s">
+        <v>447</v>
+      </c>
+      <c r="C200" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B201" t="s">
+        <v>447</v>
+      </c>
+      <c r="C201" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B202" t="s">
+        <v>447</v>
+      </c>
+      <c r="C202" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B203" t="s">
+        <v>447</v>
+      </c>
+      <c r="C203" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B204" t="s">
+        <v>447</v>
+      </c>
+      <c r="C204" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="B205" t="s">
+        <v>447</v>
+      </c>
+      <c r="C205" t="s">
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P114">
-    <sortCondition ref="L2:L114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P119">
+    <sortCondition ref="L2:L119"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEFB389-80EB-A34B-B19C-8A4D6D9E3282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C6AE5-B0EA-0A4A-B381-7B95CF46F912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3273,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K185" workbookViewId="0">
-      <selection activeCell="P204" sqref="A1:P204"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C6AE5-B0EA-0A4A-B381-7B95CF46F912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="460" windowWidth="23480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="480" windowWidth="35620" windowHeight="22680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="537">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1621,9 +1615,6 @@
     <t>Cebus capucinus imitator</t>
   </si>
   <si>
-    <t>Gorilla gorilla gorilla</t>
-  </si>
-  <si>
     <t>Mus pahari</t>
   </si>
   <si>
@@ -1634,13 +1625,19 @@
   </si>
   <si>
     <t>Ursus arctos horribilis</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1845,8 +1842,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="487">
+  <cellStyleXfs count="529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2437,7 +2476,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="487">
+  <cellStyles count="529">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2681,6 +2720,27 @@
     <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2924,6 +2984,27 @@
     <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3270,14 +3351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -3622,18 +3703,16 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="28" t="s">
-        <v>493</v>
+      <c r="A9" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>352</v>
       </c>
@@ -3646,16 +3725,26 @@
       <c r="H9" s="18"/>
       <c r="I9" s="2"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="27" t="s">
-        <v>257</v>
+      <c r="A10" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>379</v>
@@ -3688,166 +3777,158 @@
       <c r="N10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="39" t="s">
-        <v>65</v>
-      </c>
+      <c r="O10" s="39"/>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="28" t="s">
-        <v>270</v>
+        <v>411</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="28" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>115</v>
-      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="28" t="s">
-        <v>492</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>202</v>
+      </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="28" t="s">
-        <v>271</v>
+        <v>475</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>524</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>202</v>
-      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="28" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>524</v>
+        <v>395</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>447</v>
@@ -3873,13 +3954,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="28" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>447</v>
@@ -3905,13 +3986,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="28" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>433</v>
+        <v>533</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>447</v>
@@ -3937,13 +4018,13 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="28" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>447</v>
@@ -3968,18 +4049,16 @@
       <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="28" t="s">
-        <v>476</v>
+      <c r="A19" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>352</v>
       </c>
@@ -3992,16 +4071,26 @@
       <c r="H19" s="18"/>
       <c r="I19" s="2"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="K19" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="P19" s="39"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="27" t="s">
-        <v>264</v>
+      <c r="A20" s="28" t="s">
+        <v>473</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>379</v>
@@ -4009,7 +4098,9 @@
       <c r="C20" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>352</v>
       </c>
@@ -4022,58 +4113,54 @@
       <c r="H20" s="18"/>
       <c r="I20" s="2"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="39"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="28" t="s">
-        <v>473</v>
+        <v>267</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>195</v>
+      </c>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="28" t="s">
-        <v>267</v>
+        <v>494</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>379</v>
@@ -4081,7 +4168,9 @@
       <c r="C22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>352</v>
       </c>
@@ -4092,36 +4181,26 @@
         <v>340</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>195</v>
-      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="31" t="s">
-        <v>494</v>
+      <c r="A23" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>447</v>
-      </c>
+      <c r="C23" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>352</v>
       </c>
@@ -4131,11 +4210,29 @@
       <c r="G23" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="39"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="27" t="s">
-        <v>256</v>
+      <c r="A24" s="28" t="s">
+        <v>269</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>379</v>
@@ -4147,15 +4244,15 @@
       <c r="E24" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="39" t="s">
         <v>77</v>
       </c>
@@ -4168,14 +4265,12 @@
       <c r="N24" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="39" t="s">
-        <v>42</v>
-      </c>
+      <c r="O24" s="39"/>
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="28" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>379</v>
@@ -4187,15 +4282,15 @@
       <c r="E25" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="39" t="s">
         <v>77</v>
       </c>
@@ -4213,45 +4308,45 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="28" t="s">
-        <v>256</v>
+        <v>410</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="28" t="s">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>379</v>
@@ -4259,7 +4354,9 @@
       <c r="C27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>352</v>
       </c>
@@ -4272,33 +4369,25 @@
       <c r="H27" s="18"/>
       <c r="I27" s="2"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>193</v>
-      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="28" t="s">
-        <v>498</v>
+      <c r="A28" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>352</v>
@@ -4312,26 +4401,36 @@
       <c r="H28" s="18"/>
       <c r="I28" s="2"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="K28" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="27" t="s">
-        <v>275</v>
+      <c r="A29" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>400</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>352</v>
       </c>
@@ -4348,30 +4447,26 @@
         <v>77</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>164</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="28" t="s">
-        <v>178</v>
+      <c r="A30" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -4387,23 +4482,27 @@
       <c r="I30" s="2"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="27" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>379</v>
@@ -4436,16 +4535,12 @@
       <c r="N31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="27" t="s">
-        <v>445</v>
+      <c r="A32" s="28" t="s">
+        <v>478</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>379</v>
@@ -4453,7 +4548,9 @@
       <c r="C32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>352</v>
       </c>
@@ -4466,56 +4563,56 @@
       <c r="H32" s="18"/>
       <c r="I32" s="2"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>101</v>
-      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="28" t="s">
-        <v>478</v>
+      <c r="A33" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="P33" s="39"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="27" t="s">
-        <v>274</v>
+      <c r="A34" s="28" t="s">
+        <v>412</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>379</v>
@@ -4527,15 +4624,15 @@
       <c r="E34" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="39" t="s">
         <v>77</v>
       </c>
@@ -4548,22 +4645,22 @@
       <c r="N34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="O34" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="O34" s="39"/>
       <c r="P34" s="39"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="28" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>396</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E35" s="3" t="s">
         <v>352</v>
       </c>
@@ -4576,30 +4673,22 @@
       <c r="H35" s="18"/>
       <c r="I35" s="2"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="28" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>447</v>
@@ -4624,46 +4713,54 @@
       <c r="P36" s="39"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="28" t="s">
-        <v>484</v>
+      <c r="A37" s="27" t="s">
+        <v>263</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="P37" s="39"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="27" t="s">
-        <v>263</v>
+      <c r="A38" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -4682,22 +4779,20 @@
         <v>73</v>
       </c>
       <c r="L38" s="39" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="N38" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>62</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O38" s="39"/>
       <c r="P38" s="39"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="28" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>379</v>
@@ -4705,47 +4800,39 @@
       <c r="C39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E39" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>191</v>
-      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="28" t="s">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
         <v>352</v>
       </c>
@@ -4758,22 +4845,30 @@
       <c r="H40" s="18"/>
       <c r="I40" s="2"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
+      <c r="K40" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>198</v>
+      </c>
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="28" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
@@ -4792,50 +4887,56 @@
         <v>77</v>
       </c>
       <c r="L41" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>198</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="28" t="s">
-        <v>456</v>
+      <c r="A42" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H42" s="18"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="20"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>141</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" s="39"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="27" t="s">
-        <v>258</v>
+      <c r="A43" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>379</v>
@@ -4868,20 +4969,18 @@
       <c r="N43" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="O43" s="39" t="s">
-        <v>68</v>
-      </c>
+      <c r="O43" s="39"/>
       <c r="P43" s="39"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="28" t="s">
-        <v>272</v>
+        <v>453</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4897,63 +4996,63 @@
       <c r="I44" s="3"/>
       <c r="J44" s="18"/>
       <c r="K44" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="39"/>
       <c r="P44" s="39"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="28" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>516</v>
+        <v>173</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="39" t="s">
         <v>73</v>
       </c>
       <c r="L45" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
+      <c r="M45" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>189</v>
+      </c>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="28" t="s">
-        <v>405</v>
+      <c r="A46" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -4972,112 +5071,104 @@
         <v>73</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M46" s="39" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="N46" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="O46" s="39"/>
+        <v>158</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="P46" s="39"/>
     </row>
     <row r="47" spans="1:16" ht="16" customHeight="1">
       <c r="A47" s="27" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H47" s="18"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="20"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="39" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L47" s="39" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M47" s="39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N47" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O47" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="16" customHeight="1">
-      <c r="A48" s="27" t="s">
-        <v>277</v>
+      <c r="A48" s="28" t="s">
+        <v>474</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E48" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H48" s="18"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M48" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="P48" s="39" t="s">
-        <v>167</v>
-      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="28" t="s">
-        <v>474</v>
+      <c r="A49" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>352</v>
       </c>
@@ -5090,22 +5181,32 @@
       <c r="H49" s="18"/>
       <c r="I49" s="2"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
+      <c r="K49" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="P49" s="39"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="27" t="s">
-        <v>254</v>
+      <c r="A50" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -5124,22 +5225,20 @@
         <v>77</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="M50" s="39" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N50" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>47</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O50" s="39"/>
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="28" t="s">
-        <v>268</v>
+        <v>413</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>379</v>
@@ -5151,15 +5250,15 @@
       <c r="E51" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H51" s="18"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="20"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="39" t="s">
         <v>77</v>
       </c>
@@ -5177,15 +5276,17 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="28" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>520</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E52" s="3" t="s">
         <v>352</v>
       </c>
@@ -5198,48 +5299,54 @@
       <c r="H52" s="18"/>
       <c r="I52" s="3"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M52" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="31" t="s">
-        <v>450</v>
+      <c r="A53" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>447</v>
-      </c>
+      <c r="C53" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H53" s="32"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="28" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>379</v>
@@ -5251,15 +5358,15 @@
       <c r="E54" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H54" s="18"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="39" t="s">
         <v>73</v>
       </c>
@@ -5277,7 +5384,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="28" t="s">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>379</v>
@@ -5285,43 +5392,37 @@
       <c r="C55" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E55" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H55" s="18"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L55" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>187</v>
-      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="28" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>403</v>
+        <v>532</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>447</v>
@@ -5347,13 +5448,13 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="28" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>447</v>
@@ -5378,18 +5479,16 @@
       <c r="P57" s="39"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="28" t="s">
-        <v>471</v>
+      <c r="A58" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>352</v>
       </c>
@@ -5402,62 +5501,70 @@
       <c r="H58" s="18"/>
       <c r="I58" s="2"/>
       <c r="J58" s="20"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
+      <c r="K58" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>22</v>
+      </c>
       <c r="P58" s="39"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="27" t="s">
-        <v>262</v>
+      <c r="A59" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H59" s="18"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="20"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="39" t="s">
         <v>73</v>
       </c>
       <c r="L59" s="39" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="M59" s="39" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="N59" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="O59" s="39" t="s">
-        <v>22</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O59" s="39"/>
       <c r="P59" s="39"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="28" t="s">
-        <v>278</v>
+      <c r="A60" s="27" t="s">
+        <v>276</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
@@ -5476,26 +5583,28 @@
         <v>73</v>
       </c>
       <c r="L60" s="39" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M60" s="39" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="O60" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="P60" s="39"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="27" t="s">
-        <v>276</v>
+      <c r="A61" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>317</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
@@ -5511,45 +5620,43 @@
       <c r="I61" s="3"/>
       <c r="J61" s="18"/>
       <c r="K61" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L61" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M61" s="39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N61" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>30</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O61" s="39"/>
       <c r="P61" s="39"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>259</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H62" s="18"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="18"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="39" t="s">
         <v>77</v>
       </c>
@@ -5562,20 +5669,24 @@
       <c r="N62" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O62" s="39"/>
+      <c r="O62" s="39" t="s">
+        <v>171</v>
+      </c>
       <c r="P62" s="39"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="27" t="s">
-        <v>259</v>
+      <c r="A63" s="28" t="s">
+        <v>510</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>534</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E63" s="3" t="s">
         <v>352</v>
       </c>
@@ -5588,64 +5699,64 @@
       <c r="H63" s="18"/>
       <c r="I63" s="2"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L63" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="N63" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="O63" s="39" t="s">
-        <v>171</v>
-      </c>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
       <c r="P63" s="39"/>
     </row>
-    <row r="64" spans="1:16" s="5" customFormat="1">
-      <c r="A64" s="28" t="s">
-        <v>510</v>
+    <row r="64" spans="1:16" s="5" customFormat="1" ht="16">
+      <c r="A64" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H64" s="18"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="27" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
@@ -5658,84 +5769,72 @@
         <v>340</v>
       </c>
       <c r="H65" s="18"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="18"/>
+      <c r="I65" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J65" s="18">
+        <v>1</v>
+      </c>
       <c r="K65" s="39" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L65" s="39" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="M65" s="39" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="N65" s="39" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="P65" s="39" t="s">
-        <v>166</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="P65" s="39"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="A66" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F66" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="J66" s="18">
-        <v>1</v>
-      </c>
-      <c r="K66" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L66" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M66" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="N66" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O66" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="P66" s="39"/>
+      <c r="G66" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="H66" s="36"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="34" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>335</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D67" s="35"/>
       <c r="E67" s="35" t="s">
         <v>352</v>
       </c>
@@ -5743,7 +5842,7 @@
         <v>326</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="H67" s="36"/>
       <c r="I67" s="35"/>
@@ -5756,142 +5855,144 @@
       <c r="P67" s="41"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F68" s="35" t="s">
+      <c r="A68" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="G68" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="G68" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" s="33"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="30" t="s">
+      <c r="C69" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="A70" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
+      <c r="A71" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>373</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D72" s="8"/>
+        <v>535</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="E72" s="8" t="s">
         <v>352</v>
       </c>
@@ -5913,15 +6014,15 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="C73" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
         <v>352</v>
       </c>
@@ -5942,42 +6043,58 @@
       <c r="P73" s="45"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="A74" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="24" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
@@ -5998,30 +6115,28 @@
         <v>73</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="24" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -6039,31 +6154,31 @@
       <c r="I76" s="4"/>
       <c r="J76" s="15"/>
       <c r="K76" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="24" t="s">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -6079,35 +6194,31 @@
         <v>1</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="15"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="24" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E78" s="4" t="s">
         <v>352</v>
       </c>
@@ -6122,30 +6233,24 @@
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="31" t="s">
-        <v>449</v>
+      <c r="A79" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>447</v>
-      </c>
+      <c r="C79" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
         <v>352</v>
       </c>
@@ -6158,16 +6263,34 @@
       <c r="H79" s="15">
         <v>1</v>
       </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="24" t="s">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -6191,25 +6314,25 @@
         <v>76</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="P80" s="4"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="24" t="s">
-        <v>2</v>
+        <v>455</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>174</v>
+        <v>517</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -6225,33 +6348,29 @@
         <v>1</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="15"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
       <c r="P81" s="4"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="24" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>517</v>
+        <v>395</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -6267,27 +6386,29 @@
         <v>1</v>
       </c>
       <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M82" s="40" t="s">
-        <v>151</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="24" t="s">
-        <v>388</v>
+        <v>481</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>528</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E83" s="4" t="s">
         <v>352</v>
       </c>
@@ -6302,9 +6423,7 @@
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -6313,17 +6432,15 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="24" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
         <v>352</v>
       </c>
@@ -6337,17 +6454,29 @@
         <v>1</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="24" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>374</v>
@@ -6383,7 +6512,7 @@
         <v>111</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P85" s="4" t="s">
         <v>168</v>
@@ -6391,13 +6520,13 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="24" t="s">
-        <v>222</v>
+        <v>435</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>292</v>
+        <v>433</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -6413,35 +6542,29 @@
         <v>1</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="15"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P86" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="24" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -6459,21 +6582,17 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="4" t="s">
-        <v>434</v>
-      </c>
+      <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="24" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>374</v>
@@ -6494,19 +6613,26 @@
       <c r="H88" s="15">
         <v>1</v>
       </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="24" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -6521,19 +6647,28 @@
       <c r="H89" s="15">
         <v>1</v>
       </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="24" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>438</v>
+        <v>303</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
@@ -6549,27 +6684,33 @@
         <v>1</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="J90" s="15"/>
       <c r="K90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="24" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -6590,28 +6731,28 @@
         <v>73</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="24" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -6632,22 +6773,22 @@
         <v>73</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="24" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>374</v>
@@ -6655,7 +6796,9 @@
       <c r="C93" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E93" s="4" t="s">
         <v>352</v>
       </c>
@@ -6669,37 +6812,25 @@
         <v>1</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="31" t="s">
-        <v>448</v>
+      <c r="A94" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>447</v>
-      </c>
+      <c r="C94" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
         <v>352</v>
       </c>
@@ -6712,18 +6843,38 @@
       <c r="H94" s="15">
         <v>1</v>
       </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="4"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="24" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="E95" s="4" t="s">
         <v>352</v>
       </c>
@@ -6742,32 +6893,32 @@
         <v>77</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P95" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="24" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>334</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
         <v>352</v>
       </c>
@@ -6789,27 +6940,25 @@
         <v>76</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="24" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
@@ -6827,33 +6976,35 @@
       <c r="I97" s="4"/>
       <c r="J97" s="15"/>
       <c r="K97" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P97" s="4"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="24" t="s">
-        <v>219</v>
+        <v>489</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="4"/>
+        <v>396</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E98" s="4" t="s">
         <v>352</v>
       </c>
@@ -6867,33 +7018,23 @@
         <v>1</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="24" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>396</v>
+        <v>531</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>447</v>
@@ -6921,17 +7062,15 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="24" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
         <v>352</v>
       </c>
@@ -6946,24 +7085,32 @@
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
+      <c r="N100" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="24" t="s">
-        <v>440</v>
+        <v>241</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="E101" s="4" t="s">
         <v>352</v>
       </c>
@@ -6977,33 +7124,35 @@
         <v>1</v>
       </c>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="J101" s="15"/>
       <c r="K101" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M101" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="N101" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O101" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="P101" s="4"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="24" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
         <v>352</v>
       </c>
@@ -7022,28 +7171,26 @@
         <v>77</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="24" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
@@ -7061,29 +7208,33 @@
       <c r="I103" s="4"/>
       <c r="J103" s="15"/>
       <c r="K103" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>350</v>
+        <v>142</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="24" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
@@ -7101,33 +7252,31 @@
       <c r="I104" s="4"/>
       <c r="J104" s="15"/>
       <c r="K104" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P104" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
@@ -7148,30 +7297,32 @@
         <v>77</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P105" s="4"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="24" t="s">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D106" s="4"/>
+        <v>520</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E106" s="4" t="s">
         <v>352</v>
       </c>
@@ -7185,37 +7336,25 @@
         <v>1</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
       <c r="P106" s="4"/>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="31" t="s">
-        <v>490</v>
+      <c r="A107" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>447</v>
-      </c>
+      <c r="C107" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
         <v>352</v>
       </c>
@@ -7228,16 +7367,34 @@
       <c r="H107" s="15">
         <v>1</v>
       </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="24" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -7255,25 +7412,25 @@
       <c r="I108" s="4"/>
       <c r="J108" s="15"/>
       <c r="K108" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="24" t="s">
-        <v>214</v>
+        <v>515</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>374</v>
@@ -7281,7 +7438,9 @@
       <c r="C109" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E109" s="4" t="s">
         <v>352</v>
       </c>
@@ -7295,37 +7454,25 @@
         <v>1</v>
       </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O109" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
       <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="24" t="s">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
         <v>352</v>
       </c>
@@ -7339,25 +7486,37 @@
         <v>1</v>
       </c>
       <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="24" t="s">
-        <v>3</v>
+        <v>451</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D111" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="D111" s="4">
+        <v>21278349</v>
+      </c>
       <c r="E111" s="4" t="s">
         <v>352</v>
       </c>
@@ -7371,37 +7530,25 @@
         <v>1</v>
       </c>
       <c r="I111" s="4"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N111" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O111" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="31" t="s">
-        <v>451</v>
+      <c r="A112" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D112" s="31">
-        <v>21278349</v>
-      </c>
+      <c r="C112" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
         <v>352</v>
       </c>
@@ -7414,16 +7561,34 @@
       <c r="H112" s="15">
         <v>1</v>
       </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P112" s="4"/>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="24" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
@@ -7439,33 +7604,31 @@
         <v>1</v>
       </c>
       <c r="I113" s="4"/>
-      <c r="J113" s="15"/>
+      <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="24" t="s">
-        <v>384</v>
+        <v>207</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
@@ -7481,31 +7644,33 @@
         <v>1</v>
       </c>
       <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="J114" s="15"/>
       <c r="K114" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O114" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="P114" s="4"/>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="24" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
@@ -7523,31 +7688,31 @@
       <c r="I115" s="4"/>
       <c r="J115" s="15"/>
       <c r="K115" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="24" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
@@ -7562,80 +7727,86 @@
       <c r="H116" s="15">
         <v>1</v>
       </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="15"/>
+      <c r="I116" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J116" s="15">
+        <v>1</v>
+      </c>
       <c r="K116" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="P116" s="4"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H117" s="15">
+      <c r="A117" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H117" s="16">
         <v>1</v>
       </c>
-      <c r="I117" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J117" s="15">
+      <c r="I117" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J117" s="16">
         <v>1</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N117" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O117" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="P117" s="4"/>
+      <c r="K117" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L117" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="M117" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="N117" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="O117" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P117" s="46" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="25" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
@@ -7660,30 +7831,28 @@
         <v>73</v>
       </c>
       <c r="L118" s="46" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M118" s="46" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="N118" s="46" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="O118" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="P118" s="46" t="s">
-        <v>165</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="P118" s="46"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="25" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
@@ -7708,28 +7877,28 @@
         <v>73</v>
       </c>
       <c r="L119" s="46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M119" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N119" s="46" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="O119" s="46" t="s">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="P119" s="46"/>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
@@ -7754,28 +7923,28 @@
         <v>73</v>
       </c>
       <c r="L120" s="46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M120" s="46" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="N120" s="46" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="O120" s="46" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P120" s="46"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
@@ -7800,28 +7969,28 @@
         <v>73</v>
       </c>
       <c r="L121" s="46" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="M121" s="46" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="N121" s="46" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="O121" s="46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P121" s="46"/>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="25" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
@@ -7846,28 +8015,28 @@
         <v>73</v>
       </c>
       <c r="L122" s="46" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="M122" s="46" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="N122" s="46" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="O122" s="46" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="P122" s="46"/>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="25" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
@@ -7901,19 +8070,19 @@
         <v>72</v>
       </c>
       <c r="O123" s="46" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="P123" s="46"/>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="25" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
@@ -7935,33 +8104,37 @@
         <v>1</v>
       </c>
       <c r="K124" s="46" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L124" s="46" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="M124" s="46" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="N124" s="46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O124" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="P124" s="46"/>
+        <v>170</v>
+      </c>
+      <c r="P124" s="46" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="25" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="E125" s="6" t="s">
         <v>352</v>
       </c>
@@ -7981,81 +8154,75 @@
         <v>1</v>
       </c>
       <c r="K125" s="46" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L125" s="46" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="M125" s="46" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="N125" s="46" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="O125" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="P125" s="46" t="s">
-        <v>163</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="P125" s="46"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H126" s="16">
-        <v>1</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J126" s="16">
-        <v>1</v>
-      </c>
-      <c r="K126" s="46" t="s">
+      <c r="A126" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H126" s="17">
+        <v>2</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L126" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="M126" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="N126" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="O126" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="P126" s="46"/>
+      <c r="L126" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="26" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="10" t="s">
@@ -8076,24 +8243,22 @@
         <v>73</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M127" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P127" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="26" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>377</v>
@@ -8114,34 +8279,26 @@
       <c r="H128" s="17">
         <v>2</v>
       </c>
-      <c r="I128" s="10"/>
+      <c r="I128" s="26"/>
       <c r="J128" s="17"/>
       <c r="K128" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L128" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M128" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N128" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O128" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="26" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10" t="s">
@@ -8156,7 +8313,7 @@
       <c r="H129" s="17">
         <v>2</v>
       </c>
-      <c r="I129" s="26"/>
+      <c r="I129" s="10"/>
       <c r="J129" s="17"/>
       <c r="K129" s="10" t="s">
         <v>73</v>
@@ -8169,13 +8326,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="26" t="s">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10" t="s">
@@ -8195,16 +8352,29 @@
       <c r="K130" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="L130" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="26" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="10" t="s">
@@ -8222,33 +8392,35 @@
       <c r="I131" s="10"/>
       <c r="J131" s="17"/>
       <c r="K131" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="26" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D132" s="10"/>
+        <v>526</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="E132" s="10" t="s">
         <v>352</v>
       </c>
@@ -8259,40 +8431,28 @@
         <v>340</v>
       </c>
       <c r="H132" s="17">
-        <v>2</v>
-      </c>
-      <c r="I132" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I132" s="26"/>
       <c r="J132" s="17"/>
-      <c r="K132" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L132" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M132" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N132" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O132" s="10" t="s">
-        <v>160</v>
-      </c>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="26" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>447</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D133" s="10"/>
       <c r="E133" s="10" t="s">
         <v>352</v>
       </c>
@@ -8303,28 +8463,40 @@
         <v>340</v>
       </c>
       <c r="H133" s="17">
-        <v>1</v>
-      </c>
-      <c r="I133" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="I133" s="10"/>
       <c r="J133" s="17"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
+      <c r="K133" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="26" t="s">
-        <v>237</v>
+        <v>493</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D134" s="10"/>
+        <v>398</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="E134" s="10" t="s">
         <v>352</v>
       </c>
@@ -8338,22 +8510,12 @@
         <v>2</v>
       </c>
       <c r="I134" s="10"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L134" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M134" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N134" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O134" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16">
@@ -9583,6 +9745,14 @@
       <c r="H167" s="17">
         <v>1</v>
       </c>
+      <c r="I167" s="26"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
+      <c r="N167" s="17"/>
+      <c r="O167" s="17"/>
+      <c r="P167" s="17"/>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="26" t="s">
@@ -10087,6 +10257,14 @@
       <c r="H181" s="17">
         <v>2</v>
       </c>
+      <c r="I181" s="26"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="17"/>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="31" t="s">
@@ -10113,6 +10291,14 @@
       <c r="H182" s="17">
         <v>1</v>
       </c>
+      <c r="I182" s="26"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="17"/>
+      <c r="P182" s="17"/>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="26" t="s">
@@ -10927,7 +11113,7 @@
       <c r="P204" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P204">
+  <sortState ref="A2:P204">
     <sortCondition ref="B2:B204"/>
     <sortCondition ref="C2:C204"/>
   </sortState>
@@ -10943,14 +11129,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BE900B-115B-264F-81B3-1A71ED1A1F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="31" t="s">
@@ -10979,5 +11165,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F25C8C-146B-F241-8917-BF5323D8D2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="480" windowWidth="35620" windowHeight="22680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1636,8 +1642,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3351,14 +3357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:P204"/>
+      <selection activeCell="H137" sqref="A1:P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
@@ -3623,16 +3629,16 @@
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="27" t="s">
-        <v>265</v>
+      <c r="A7" s="26" t="s">
+        <v>462</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="3" t="s">
         <v>352</v>
       </c>
@@ -3642,35 +3648,27 @@
       <c r="G7" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="39" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="39"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -3686,31 +3684,31 @@
       <c r="I8" s="2"/>
       <c r="J8" s="20"/>
       <c r="K8" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -3729,22 +3727,22 @@
         <v>77</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="28" t="s">
-        <v>270</v>
+      <c r="A10" s="27" t="s">
+        <v>257</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>379</v>
@@ -3777,158 +3775,166 @@
       <c r="N10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="28" t="s">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="28" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="28" t="s">
-        <v>271</v>
+        <v>492</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>202</v>
-      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="28" t="s">
-        <v>475</v>
+        <v>271</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>202</v>
+      </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="28" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>447</v>
@@ -3954,13 +3960,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="28" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>447</v>
@@ -3986,13 +3992,13 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="28" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>447</v>
@@ -4017,18 +4023,16 @@
       <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="28" t="s">
-        <v>476</v>
+      <c r="A18" s="26" t="s">
+        <v>460</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>447</v>
-      </c>
+      <c r="C18" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="3" t="s">
         <v>352</v>
       </c>
@@ -4038,27 +4042,31 @@
       <c r="G18" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="27" t="s">
-        <v>264</v>
+      <c r="A19" s="28" t="s">
+        <v>502</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>533</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>352</v>
       </c>
@@ -4071,32 +4079,22 @@
       <c r="H19" s="18"/>
       <c r="I19" s="2"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="39"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="28" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
+        <v>525</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>447</v>
@@ -4121,52 +4119,54 @@
       <c r="P20" s="39"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="28" t="s">
-        <v>267</v>
+      <c r="A21" s="27" t="s">
+        <v>264</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="O21" s="39"/>
+        <v>105</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>16</v>
+      </c>
       <c r="P21" s="39"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="28" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>447</v>
@@ -4174,7 +4174,7 @@
       <c r="E22" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -4191,14 +4191,14 @@
       <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="27" t="s">
-        <v>256</v>
+      <c r="A23" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4217,34 +4217,34 @@
         <v>77</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>42</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O23" s="39"/>
       <c r="P23" s="39"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="28" t="s">
-        <v>269</v>
+        <v>494</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -4253,23 +4253,15 @@
       <c r="H24" s="18"/>
       <c r="I24" s="2"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>85</v>
-      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>256</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4303,18 +4295,20 @@
       <c r="N25" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="O25" s="39"/>
+      <c r="O25" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="28" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4330,65 +4324,69 @@
       <c r="I26" s="2"/>
       <c r="J26" s="20"/>
       <c r="K26" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="28" t="s">
-        <v>498</v>
+        <v>256</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="27" t="s">
-        <v>275</v>
+      <c r="A28" s="28" t="s">
+        <v>410</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>400</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>352</v>
       </c>
@@ -4402,35 +4400,33 @@
       <c r="I28" s="2"/>
       <c r="J28" s="20"/>
       <c r="K28" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>164</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="28" t="s">
-        <v>178</v>
+        <v>498</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>352</v>
       </c>
@@ -4443,32 +4439,26 @@
       <c r="H29" s="18"/>
       <c r="I29" s="2"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>204</v>
-      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>352</v>
       </c>
@@ -4482,33 +4472,33 @@
       <c r="I30" s="2"/>
       <c r="J30" s="20"/>
       <c r="K30" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="27" t="s">
-        <v>445</v>
+      <c r="A31" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -4524,23 +4514,23 @@
       <c r="I31" s="2"/>
       <c r="J31" s="20"/>
       <c r="K31" s="39" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="N31" s="39" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="28" t="s">
-        <v>478</v>
+      <c r="A32" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>379</v>
@@ -4548,9 +4538,7 @@
       <c r="C32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>447</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>352</v>
       </c>
@@ -4563,64 +4551,76 @@
       <c r="H32" s="18"/>
       <c r="I32" s="2"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="K32" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="27" t="s">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="39" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>58</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O33" s="39"/>
       <c r="P33" s="39"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="28" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E34" s="3" t="s">
         <v>352</v>
       </c>
@@ -4633,66 +4633,64 @@
       <c r="H34" s="18"/>
       <c r="I34" s="2"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="28" t="s">
-        <v>488</v>
+      <c r="A35" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="P35" s="39"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="28" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
         <v>352</v>
       </c>
@@ -4705,172 +4703,176 @@
       <c r="H36" s="18"/>
       <c r="I36" s="2"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
+      <c r="K36" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="27" t="s">
-        <v>263</v>
+      <c r="A37" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>396</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E37" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>62</v>
-      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
       <c r="P37" s="39"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="28" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E38" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H38" s="18"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>191</v>
-      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="28" t="s">
-        <v>500</v>
+      <c r="A39" s="27" t="s">
+        <v>263</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H39" s="18"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H40" s="18"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="20"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L40" s="39" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="28" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E41" s="3" t="s">
         <v>352</v>
       </c>
@@ -4883,104 +4885,94 @@
       <c r="H41" s="18"/>
       <c r="I41" s="2"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>141</v>
-      </c>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
       <c r="M41" s="39"/>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="27" t="s">
-        <v>258</v>
+      <c r="A42" s="28" t="s">
+        <v>414</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H42" s="18"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="18"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="N42" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>68</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O42" s="39"/>
       <c r="P42" s="39"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="28" t="s">
-        <v>272</v>
+        <v>456</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L43" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>97</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="28" t="s">
-        <v>453</v>
+      <c r="A44" s="27" t="s">
+        <v>258</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>516</v>
+        <v>184</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -4996,149 +4988,143 @@
       <c r="I44" s="3"/>
       <c r="J44" s="18"/>
       <c r="K44" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="P44" s="39"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="28" t="s">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L45" s="39" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="M45" s="39" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="N45" s="39" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="27" t="s">
-        <v>261</v>
+      <c r="A46" s="28" t="s">
+        <v>453</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>322</v>
+        <v>516</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H46" s="18"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="39" t="s">
         <v>73</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>27</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
       <c r="P46" s="39"/>
     </row>
     <row r="47" spans="1:16" ht="16" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>277</v>
+      <c r="A47" s="28" t="s">
+        <v>405</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>324</v>
+        <v>173</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H47" s="18"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="18"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="39" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L47" s="39" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="M47" s="39" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="N47" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="P47" s="39" t="s">
-        <v>167</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
     </row>
     <row r="48" spans="1:16" ht="16" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>474</v>
+      <c r="A48" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
         <v>352</v>
       </c>
@@ -5151,64 +5137,78 @@
       <c r="H48" s="18"/>
       <c r="I48" s="2"/>
       <c r="J48" s="20"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
+      <c r="K48" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="P48" s="39"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="27" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H49" s="18"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="39" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L49" s="39" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M49" s="39" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="P49" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="28" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E50" s="3" t="s">
         <v>352</v>
       </c>
@@ -5221,140 +5221,142 @@
       <c r="H50" s="18"/>
       <c r="I50" s="2"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="39"/>
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="28" t="s">
-        <v>413</v>
+      <c r="A51" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H51" s="18"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="18"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L51" s="39" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="M51" s="39" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N51" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="O51" s="39"/>
+        <v>139</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="P51" s="39"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="28" t="s">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H52" s="18"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="28" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>403</v>
+        <v>176</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H53" s="18"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L53" s="39" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="M53" s="39" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="N53" s="39" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="28" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>520</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E54" s="3" t="s">
         <v>352</v>
       </c>
@@ -5367,24 +5369,16 @@
       <c r="H54" s="18"/>
       <c r="I54" s="3"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L54" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>187</v>
-      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="28" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>379</v>
@@ -5392,9 +5386,7 @@
       <c r="C55" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>447</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
         <v>352</v>
       </c>
@@ -5407,54 +5399,68 @@
       <c r="H55" s="18"/>
       <c r="I55" s="2"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
+      <c r="K55" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="28" t="s">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H56" s="18"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N56" s="39" t="s">
+        <v>187</v>
+      </c>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="28" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>447</v>
@@ -5479,16 +5485,18 @@
       <c r="P57" s="39"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="27" t="s">
-        <v>262</v>
+      <c r="A58" s="28" t="s">
+        <v>501</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>532</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E58" s="3" t="s">
         <v>352</v>
       </c>
@@ -5501,110 +5509,94 @@
       <c r="H58" s="18"/>
       <c r="I58" s="2"/>
       <c r="J58" s="20"/>
-      <c r="K58" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L58" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>22</v>
-      </c>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
       <c r="P58" s="39"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="28" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>443</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>447</v>
+      </c>
       <c r="E59" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H59" s="18"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="M59" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="N59" s="39" t="s">
-        <v>200</v>
-      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="27" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H60" s="18"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="18"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="39" t="s">
         <v>73</v>
       </c>
       <c r="L60" s="39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M60" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P60" s="39"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="28" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
@@ -5620,409 +5612,427 @@
       <c r="I61" s="3"/>
       <c r="J61" s="18"/>
       <c r="K61" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L61" s="39" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M61" s="39" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="N61" s="39" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="O61" s="39"/>
       <c r="P61" s="39"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="27" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H62" s="18"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="20"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L62" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M62" s="39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N62" s="39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O62" s="39" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="P62" s="39"/>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="28" t="s">
-        <v>510</v>
+        <v>259</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>447</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H63" s="18"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
     </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" ht="16">
+    <row r="64" spans="1:16" s="5" customFormat="1">
       <c r="A64" s="27" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H64" s="18"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="18"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="P64" s="39"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L64" s="39" t="s">
+      <c r="L66" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M66" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="N64" s="39" t="s">
+      <c r="N66" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O66" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="P66" s="39" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="27" t="s">
+    <row r="67" spans="1:16">
+      <c r="A67" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="3" t="s">
+      <c r="G67" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J67" s="18">
         <v>1</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K67" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L67" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M67" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N67" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O67" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="P65" s="39"/>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="34" t="s">
+      <c r="P67" s="39"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B68" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C68" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D68" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="E66" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F66" s="35" t="s">
+      <c r="E68" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G68" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="34" t="s">
+      <c r="H68" s="36"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B69" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C69" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F67" s="35" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F69" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G69" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="29" t="s">
+      <c r="H69" s="36"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B70" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C70" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="F68" s="30" t="s">
+      <c r="D70" s="30"/>
+      <c r="E70" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F70" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G70" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="22" t="s">
+      <c r="H70" s="33"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="E71" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42" t="s">
+      <c r="H71" s="13"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="21" t="s">
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="E72" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>373</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D73" s="8"/>
+        <v>535</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="E73" s="8" t="s">
         <v>352</v>
       </c>
@@ -6043,100 +6053,74 @@
       <c r="P73" s="45"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H74" s="15">
-        <v>1</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="A74" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H75" s="15">
-        <v>1</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P75" s="4"/>
+      <c r="A75" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -6154,31 +6138,33 @@
       <c r="I76" s="4"/>
       <c r="J76" s="15"/>
       <c r="K76" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P76" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="24" t="s">
-        <v>442</v>
+        <v>213</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -6194,31 +6180,35 @@
         <v>1</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="24" t="s">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
         <v>352</v>
       </c>
@@ -6232,23 +6222,33 @@
         <v>1</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="24" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
@@ -6264,35 +6264,31 @@
         <v>1</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="15"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="24" t="s">
-        <v>2</v>
+        <v>449</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E80" s="4" t="s">
         <v>352</v>
       </c>
@@ -6306,33 +6302,23 @@
         <v>1</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="24" t="s">
-        <v>455</v>
+        <v>212</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>517</v>
+        <v>310</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -6348,29 +6334,33 @@
         <v>1</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="J81" s="15"/>
       <c r="K81" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="P81" s="4"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="24" t="s">
-        <v>388</v>
+        <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -6386,29 +6376,35 @@
         <v>1</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="J82" s="15"/>
       <c r="K82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="P82" s="4"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="24" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
         <v>352</v>
       </c>
@@ -6423,22 +6419,28 @@
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="K83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="24" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -6454,37 +6456,29 @@
         <v>1</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="15"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="24" t="s">
-        <v>222</v>
+        <v>481</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>528</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E85" s="4" t="s">
         <v>352</v>
       </c>
@@ -6498,35 +6492,23 @@
         <v>1</v>
       </c>
       <c r="I85" s="4"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="24" t="s">
-        <v>435</v>
+        <v>239</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>433</v>
+        <v>292</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -6542,29 +6524,35 @@
         <v>1</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="4" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M86" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="N86" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="24" t="s">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>518</v>
+        <v>292</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -6580,25 +6568,35 @@
         <v>1</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="J87" s="15"/>
       <c r="K87" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="24" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>518</v>
+        <v>433</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -6616,23 +6614,27 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L88" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="N88" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="24" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -6650,11 +6652,9 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -6662,13 +6662,13 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="24" t="s">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>303</v>
+        <v>518</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
@@ -6684,33 +6684,25 @@
         <v>1</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="15"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="24" t="s">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -6726,33 +6718,27 @@
         <v>1</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="15"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
       <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="24" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -6773,32 +6759,30 @@
         <v>73</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="24" t="s">
-        <v>448</v>
+        <v>216</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
         <v>352</v>
       </c>
@@ -6812,23 +6796,33 @@
         <v>1</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
@@ -6844,36 +6838,36 @@
         <v>1</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="J94" s="15"/>
       <c r="K94" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P94" s="4"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="24" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>352</v>
@@ -6888,35 +6882,23 @@
         <v>1</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="24" t="s">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -6932,35 +6914,37 @@
         <v>1</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="15"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="E97" s="4" t="s">
         <v>352</v>
       </c>
@@ -6976,35 +6960,35 @@
       <c r="I97" s="4"/>
       <c r="J97" s="15"/>
       <c r="K97" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P97" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="24" t="s">
-        <v>489</v>
+        <v>243</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
         <v>352</v>
       </c>
@@ -7018,27 +7002,35 @@
         <v>1</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="24" t="s">
-        <v>499</v>
+        <v>219</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
         <v>352</v>
       </c>
@@ -7052,25 +7044,37 @@
         <v>1</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="P99" s="4"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="24" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>396</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E100" s="4" t="s">
         <v>352</v>
       </c>
@@ -7085,31 +7089,25 @@
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="24" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>346</v>
+        <v>447</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>352</v>
@@ -7124,33 +7122,23 @@
         <v>1</v>
       </c>
       <c r="I101" s="4"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N101" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
       <c r="P101" s="4"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="24" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -7166,33 +7154,33 @@
         <v>1</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="J102" s="15"/>
+      <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>350</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4" t="s">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="24" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="E103" s="4" t="s">
         <v>352</v>
       </c>
@@ -7208,33 +7196,31 @@
       <c r="I103" s="4"/>
       <c r="J103" s="15"/>
       <c r="K103" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P103" s="4"/>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="24" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
@@ -7258,25 +7244,23 @@
         <v>141</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
@@ -7294,35 +7278,35 @@
       <c r="I105" s="4"/>
       <c r="J105" s="15"/>
       <c r="K105" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P105" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="24" t="s">
-        <v>490</v>
+        <v>242</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
         <v>352</v>
       </c>
@@ -7336,23 +7320,33 @@
         <v>1</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="P106" s="4"/>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="24" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
@@ -7373,30 +7367,32 @@
         <v>77</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="24" t="s">
-        <v>214</v>
+        <v>490</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" s="4"/>
+        <v>520</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E108" s="4" t="s">
         <v>352</v>
       </c>
@@ -7410,37 +7406,25 @@
         <v>1</v>
       </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O108" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
       <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="24" t="s">
-        <v>515</v>
+        <v>240</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
         <v>352</v>
       </c>
@@ -7454,23 +7438,33 @@
         <v>1</v>
       </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="24" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
@@ -7488,34 +7482,34 @@
       <c r="I110" s="4"/>
       <c r="J110" s="15"/>
       <c r="K110" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="24" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" s="4">
-        <v>21278349</v>
+        <v>299</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>352</v>
@@ -7540,13 +7534,13 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="24" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
@@ -7564,33 +7558,35 @@
       <c r="I112" s="4"/>
       <c r="J112" s="15"/>
       <c r="K112" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="P112" s="4"/>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="24" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="D113" s="4">
+        <v>21278349</v>
+      </c>
       <c r="E113" s="4" t="s">
         <v>352</v>
       </c>
@@ -7605,30 +7601,22 @@
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="24" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
@@ -7646,31 +7634,31 @@
       <c r="I114" s="4"/>
       <c r="J114" s="15"/>
       <c r="K114" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P114" s="4"/>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="24" t="s">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
@@ -7686,33 +7674,31 @@
         <v>1</v>
       </c>
       <c r="I115" s="4"/>
-      <c r="J115" s="15"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O115" s="4"/>
       <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="24" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
@@ -7727,132 +7713,122 @@
       <c r="H116" s="15">
         <v>1</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" s="4"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P116" s="4"/>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H117" s="15">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P117" s="4"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H118" s="15">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J116" s="15">
+      <c r="J118" s="15">
         <v>1</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K118" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L118" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M116" s="4" t="s">
+      <c r="M118" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N116" s="4" t="s">
+      <c r="N118" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O116" s="4" t="s">
+      <c r="O118" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P116" s="4"/>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H117" s="16">
-        <v>1</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J117" s="16">
-        <v>1</v>
-      </c>
-      <c r="K117" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="L117" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="M117" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N117" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="O117" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="P117" s="46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H118" s="16">
-        <v>1</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="J118" s="16">
-        <v>1</v>
-      </c>
-      <c r="K118" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="L118" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="M118" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="N118" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="O118" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="P118" s="46"/>
+      <c r="P118" s="4"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="25" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
@@ -7877,28 +7853,30 @@
         <v>73</v>
       </c>
       <c r="L119" s="46" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="M119" s="46" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N119" s="46" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="O119" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P119" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="P119" s="46" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="25" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>303</v>
+        <v>9</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
@@ -7926,25 +7904,25 @@
         <v>110</v>
       </c>
       <c r="M120" s="46" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="N120" s="46" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="O120" s="46" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="P120" s="46"/>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
@@ -7969,28 +7947,28 @@
         <v>73</v>
       </c>
       <c r="L121" s="46" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="M121" s="46" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N121" s="46" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O121" s="46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P121" s="46"/>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="25" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
@@ -8015,28 +7993,28 @@
         <v>73</v>
       </c>
       <c r="L122" s="46" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="M122" s="46" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="N122" s="46" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="O122" s="46" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="P122" s="46"/>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="25" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
@@ -8061,28 +8039,28 @@
         <v>73</v>
       </c>
       <c r="L123" s="46" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="M123" s="46" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="N123" s="46" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="O123" s="46" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="P123" s="46"/>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="25" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
@@ -8104,37 +8082,33 @@
         <v>1</v>
       </c>
       <c r="K124" s="46" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L124" s="46" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="M124" s="46" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="N124" s="46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O124" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="P124" s="46" t="s">
-        <v>163</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="P124" s="46"/>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="25" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>342</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
         <v>352</v>
       </c>
@@ -8157,114 +8131,124 @@
         <v>73</v>
       </c>
       <c r="L125" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="M125" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="N125" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O125" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P125" s="46"/>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H126" s="16">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J126" s="16">
+        <v>1</v>
+      </c>
+      <c r="K126" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L126" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="M126" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="N126" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O126" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="P126" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H127" s="16">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J127" s="16">
+        <v>1</v>
+      </c>
+      <c r="K127" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="L127" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="M125" s="46" t="s">
+      <c r="M127" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="N125" s="46" t="s">
+      <c r="N127" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="O125" s="46" t="s">
+      <c r="O127" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P125" s="46"/>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H126" s="17">
-        <v>2</v>
-      </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L126" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="M126" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="N126" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O126" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P126" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H127" s="17">
-        <v>2</v>
-      </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L127" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M127" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N127" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O127" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P127" s="10"/>
+      <c r="P127" s="46"/>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="26" t="s">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="10" t="s">
@@ -8279,26 +8263,36 @@
       <c r="H128" s="17">
         <v>2</v>
       </c>
-      <c r="I128" s="26"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="17"/>
       <c r="K128" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
+      <c r="L128" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="26" t="s">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10" t="s">
@@ -8318,21 +8312,29 @@
       <c r="K129" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
+      <c r="L129" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M129" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N129" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="26" t="s">
-        <v>236</v>
+        <v>389</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10" t="s">
@@ -8347,34 +8349,26 @@
       <c r="H130" s="17">
         <v>2</v>
       </c>
-      <c r="I130" s="10"/>
+      <c r="I130" s="26"/>
       <c r="J130" s="17"/>
       <c r="K130" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L130" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M130" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N130" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O130" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="26" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="10" t="s">
@@ -8392,35 +8386,33 @@
       <c r="I131" s="10"/>
       <c r="J131" s="17"/>
       <c r="K131" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="26" t="s">
-        <v>479</v>
+        <v>223</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>447</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D132" s="10"/>
       <c r="E132" s="10" t="s">
         <v>352</v>
       </c>
@@ -8431,28 +8423,40 @@
         <v>340</v>
       </c>
       <c r="H132" s="17">
-        <v>1</v>
-      </c>
-      <c r="I132" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="I132" s="10"/>
       <c r="J132" s="17"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
+      <c r="K132" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="26" t="s">
-        <v>237</v>
+        <v>479</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D133" s="10"/>
+        <v>526</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="E133" s="10" t="s">
         <v>352</v>
       </c>
@@ -8463,40 +8467,28 @@
         <v>340</v>
       </c>
       <c r="H133" s="17">
-        <v>2</v>
-      </c>
-      <c r="I133" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I133" s="26"/>
       <c r="J133" s="17"/>
-      <c r="K133" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L133" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M133" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N133" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O133" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="26" t="s">
-        <v>493</v>
+        <v>237</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>447</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D134" s="10"/>
       <c r="E134" s="10" t="s">
         <v>352</v>
       </c>
@@ -8510,17 +8502,27 @@
         <v>2</v>
       </c>
       <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="26" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>377</v>
@@ -8528,7 +8530,9 @@
       <c r="C135" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D135" s="10"/>
+      <c r="D135" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="E135" s="10" t="s">
         <v>352</v>
       </c>
@@ -8541,11 +8545,9 @@
       <c r="H135" s="17">
         <v>2</v>
       </c>
-      <c r="I135" s="26"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
@@ -8554,13 +8556,13 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="26" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="10" t="s">
@@ -8575,34 +8577,26 @@
       <c r="H136" s="17">
         <v>2</v>
       </c>
-      <c r="I136" s="10"/>
+      <c r="I136" s="26"/>
       <c r="J136" s="17"/>
       <c r="K136" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L136" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M136" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="N136" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O136" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="10" t="s">
@@ -8623,28 +8617,28 @@
         <v>77</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O137" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="26" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="10" t="s">
@@ -8665,32 +8659,30 @@
         <v>77</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="26" t="s">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>447</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D139" s="10"/>
       <c r="E139" s="10" t="s">
         <v>352</v>
       </c>
@@ -8701,26 +8693,36 @@
         <v>340</v>
       </c>
       <c r="H139" s="17">
-        <v>1</v>
-      </c>
-      <c r="I139" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="I139" s="10"/>
       <c r="J139" s="17"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
+      <c r="K139" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M139" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N139" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="26" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>433</v>
+        <v>316</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>447</v>
@@ -8748,7 +8750,7 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>377</v>
@@ -8769,7 +8771,7 @@
         <v>340</v>
       </c>
       <c r="H141" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="17"/>
@@ -8782,15 +8784,17 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="26" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="D142" s="10"/>
+        <v>433</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>447</v>
+      </c>
       <c r="E142" s="10" t="s">
         <v>352</v>
       </c>
@@ -8803,11 +8807,9 @@
       <c r="H142" s="17">
         <v>2</v>
       </c>
-      <c r="I142" s="10"/>
+      <c r="I142" s="26"/>
       <c r="J142" s="17"/>
-      <c r="K142" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
@@ -9721,16 +9723,16 @@
       <c r="P166" s="10"/>
     </row>
     <row r="167" spans="1:16">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="26" t="s">
         <v>464</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="10" t="s">
         <v>447</v>
       </c>
       <c r="E167" s="10" t="s">
@@ -10233,16 +10235,16 @@
       <c r="P180" s="10"/>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="26" t="s">
         <v>491</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C181" s="31" t="s">
+      <c r="C181" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="10" t="s">
         <v>447</v>
       </c>
       <c r="E181" s="10" t="s">
@@ -10267,16 +10269,16 @@
       <c r="P181" s="17"/>
     </row>
     <row r="182" spans="1:16">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="26" t="s">
         <v>506</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C182" s="31" t="s">
+      <c r="C182" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="10" t="s">
         <v>447</v>
       </c>
       <c r="E182" s="10" t="s">
@@ -11113,7 +11115,7 @@
       <c r="P204" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P204">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P204">
     <sortCondition ref="B2:B204"/>
     <sortCondition ref="C2:C204"/>
   </sortState>
@@ -11129,14 +11131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:16">
       <c r="A2" s="31" t="s">

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F25C8C-146B-F241-8917-BF5323D8D2E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE405C65-A8D3-FD40-ABCB-13464DA6700B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="538">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1637,6 +1637,9 @@
   </si>
   <si>
     <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>IFNL-B-Mammal-1-rtg-2</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3364,7 @@
   <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H137" sqref="A1:P204"/>
+      <selection activeCell="G9" sqref="A1:P204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7800,9 +7803,7 @@
       <c r="I118" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J118" s="15">
-        <v>1</v>
-      </c>
+      <c r="J118" s="15"/>
       <c r="K118" s="4" t="s">
         <v>77</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>209</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>376</v>
+        <v>537</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>313</v>
@@ -8171,7 +8172,7 @@
         <v>343</v>
       </c>
       <c r="J126" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" s="46" t="s">
         <v>104</v>
@@ -8264,7 +8265,9 @@
         <v>2</v>
       </c>
       <c r="I128" s="10"/>
-      <c r="J128" s="17"/>
+      <c r="J128" s="17">
+        <v>2</v>
+      </c>
       <c r="K128" s="10" t="s">
         <v>73</v>
       </c>
@@ -8308,7 +8311,9 @@
         <v>2</v>
       </c>
       <c r="I129" s="10"/>
-      <c r="J129" s="17"/>
+      <c r="J129" s="17">
+        <v>2</v>
+      </c>
       <c r="K129" s="10" t="s">
         <v>73</v>
       </c>
@@ -8350,7 +8355,9 @@
         <v>2</v>
       </c>
       <c r="I130" s="26"/>
-      <c r="J130" s="17"/>
+      <c r="J130" s="17">
+        <v>2</v>
+      </c>
       <c r="K130" s="10" t="s">
         <v>73</v>
       </c>
@@ -8384,7 +8391,9 @@
         <v>2</v>
       </c>
       <c r="I131" s="10"/>
-      <c r="J131" s="17"/>
+      <c r="J131" s="17">
+        <v>2</v>
+      </c>
       <c r="K131" s="10" t="s">
         <v>73</v>
       </c>
@@ -8426,7 +8435,9 @@
         <v>2</v>
       </c>
       <c r="I132" s="10"/>
-      <c r="J132" s="17"/>
+      <c r="J132" s="17">
+        <v>2</v>
+      </c>
       <c r="K132" s="10" t="s">
         <v>77</v>
       </c>
@@ -8467,10 +8478,12 @@
         <v>340</v>
       </c>
       <c r="H133" s="17">
+        <v>2</v>
+      </c>
+      <c r="I133" s="26"/>
+      <c r="J133" s="17">
         <v>1</v>
       </c>
-      <c r="I133" s="26"/>
-      <c r="J133" s="17"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
@@ -8502,7 +8515,9 @@
         <v>2</v>
       </c>
       <c r="I134" s="10"/>
-      <c r="J134" s="17"/>
+      <c r="J134" s="17">
+        <v>2</v>
+      </c>
       <c r="K134" s="10" t="s">
         <v>73</v>
       </c>
@@ -8546,7 +8561,9 @@
         <v>2</v>
       </c>
       <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
+      <c r="J135" s="17">
+        <v>2</v>
+      </c>
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
@@ -8578,7 +8595,9 @@
         <v>2</v>
       </c>
       <c r="I136" s="26"/>
-      <c r="J136" s="17"/>
+      <c r="J136" s="17">
+        <v>2</v>
+      </c>
       <c r="K136" s="10" t="s">
         <v>73</v>
       </c>
@@ -8612,7 +8631,9 @@
         <v>2</v>
       </c>
       <c r="I137" s="10"/>
-      <c r="J137" s="17"/>
+      <c r="J137" s="17">
+        <v>2</v>
+      </c>
       <c r="K137" s="10" t="s">
         <v>77</v>
       </c>
@@ -8654,7 +8675,9 @@
         <v>2</v>
       </c>
       <c r="I138" s="10"/>
-      <c r="J138" s="17"/>
+      <c r="J138" s="17">
+        <v>2</v>
+      </c>
       <c r="K138" s="10" t="s">
         <v>77</v>
       </c>
@@ -8696,7 +8719,9 @@
         <v>2</v>
       </c>
       <c r="I139" s="10"/>
-      <c r="J139" s="17"/>
+      <c r="J139" s="17">
+        <v>2</v>
+      </c>
       <c r="K139" s="10" t="s">
         <v>77</v>
       </c>
@@ -8737,10 +8762,12 @@
         <v>340</v>
       </c>
       <c r="H140" s="17">
+        <v>2</v>
+      </c>
+      <c r="I140" s="26"/>
+      <c r="J140" s="17">
         <v>1</v>
       </c>
-      <c r="I140" s="26"/>
-      <c r="J140" s="17"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
@@ -8771,10 +8798,12 @@
         <v>340</v>
       </c>
       <c r="H141" s="17">
+        <v>2</v>
+      </c>
+      <c r="I141" s="26"/>
+      <c r="J141" s="17">
         <v>1</v>
       </c>
-      <c r="I141" s="26"/>
-      <c r="J141" s="17"/>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
@@ -8808,7 +8837,9 @@
         <v>2</v>
       </c>
       <c r="I142" s="26"/>
-      <c r="J142" s="17"/>
+      <c r="J142" s="17">
+        <v>2</v>
+      </c>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
@@ -8840,7 +8871,9 @@
         <v>2</v>
       </c>
       <c r="I143" s="26"/>
-      <c r="J143" s="17"/>
+      <c r="J143" s="17">
+        <v>2</v>
+      </c>
       <c r="K143" s="10" t="s">
         <v>104</v>
       </c>
@@ -8873,10 +8906,12 @@
         <v>340</v>
       </c>
       <c r="H144" s="17">
+        <v>2</v>
+      </c>
+      <c r="I144" s="26"/>
+      <c r="J144" s="17">
         <v>1</v>
       </c>
-      <c r="I144" s="26"/>
-      <c r="J144" s="17"/>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
@@ -8907,10 +8942,12 @@
         <v>340</v>
       </c>
       <c r="H145" s="17">
+        <v>2</v>
+      </c>
+      <c r="I145" s="26"/>
+      <c r="J145" s="17">
         <v>1</v>
       </c>
-      <c r="I145" s="26"/>
-      <c r="J145" s="17"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
@@ -8942,7 +8979,9 @@
         <v>2</v>
       </c>
       <c r="I146" s="10"/>
-      <c r="J146" s="17"/>
+      <c r="J146" s="17">
+        <v>2</v>
+      </c>
       <c r="K146" s="10" t="s">
         <v>73</v>
       </c>
@@ -8984,7 +9023,9 @@
         <v>2</v>
       </c>
       <c r="I147" s="26"/>
-      <c r="J147" s="17"/>
+      <c r="J147" s="17">
+        <v>2</v>
+      </c>
       <c r="K147" s="10" t="s">
         <v>73</v>
       </c>
@@ -9018,7 +9059,9 @@
         <v>2</v>
       </c>
       <c r="I148" s="10"/>
-      <c r="J148" s="17"/>
+      <c r="J148" s="17">
+        <v>2</v>
+      </c>
       <c r="K148" s="10" t="s">
         <v>73</v>
       </c>
@@ -9060,7 +9103,9 @@
         <v>2</v>
       </c>
       <c r="I149" s="26"/>
-      <c r="J149" s="17"/>
+      <c r="J149" s="17">
+        <v>2</v>
+      </c>
       <c r="K149" s="10" t="s">
         <v>73</v>
       </c>
@@ -9100,7 +9145,9 @@
         <v>2</v>
       </c>
       <c r="I150" s="10"/>
-      <c r="J150" s="17"/>
+      <c r="J150" s="17">
+        <v>2</v>
+      </c>
       <c r="K150" s="10" t="s">
         <v>77</v>
       </c>
@@ -9141,10 +9188,12 @@
         <v>340</v>
       </c>
       <c r="H151" s="17">
+        <v>2</v>
+      </c>
+      <c r="I151" s="26"/>
+      <c r="J151" s="17">
         <v>1</v>
       </c>
-      <c r="I151" s="26"/>
-      <c r="J151" s="17"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -9178,7 +9227,9 @@
         <v>2</v>
       </c>
       <c r="I152" s="26"/>
-      <c r="J152" s="17"/>
+      <c r="J152" s="17">
+        <v>2</v>
+      </c>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
@@ -9212,7 +9263,9 @@
         <v>2</v>
       </c>
       <c r="I153" s="10"/>
-      <c r="J153" s="17"/>
+      <c r="J153" s="17">
+        <v>2</v>
+      </c>
       <c r="K153" s="10" t="s">
         <v>77</v>
       </c>
@@ -9254,7 +9307,9 @@
         <v>2</v>
       </c>
       <c r="I154" s="10"/>
-      <c r="J154" s="17"/>
+      <c r="J154" s="17">
+        <v>2</v>
+      </c>
       <c r="K154" s="10" t="s">
         <v>77</v>
       </c>
@@ -9298,7 +9353,9 @@
         <v>2</v>
       </c>
       <c r="I155" s="10"/>
-      <c r="J155" s="17"/>
+      <c r="J155" s="17">
+        <v>2</v>
+      </c>
       <c r="K155" s="10" t="s">
         <v>104</v>
       </c>
@@ -9342,7 +9399,9 @@
         <v>2</v>
       </c>
       <c r="I156" s="10"/>
-      <c r="J156" s="17"/>
+      <c r="J156" s="17">
+        <v>2</v>
+      </c>
       <c r="K156" s="10" t="s">
         <v>77</v>
       </c>
@@ -9384,7 +9443,9 @@
         <v>2</v>
       </c>
       <c r="I157" s="26"/>
-      <c r="J157" s="17"/>
+      <c r="J157" s="17">
+        <v>2</v>
+      </c>
       <c r="K157" s="10" t="s">
         <v>73</v>
       </c>
@@ -9420,7 +9481,9 @@
         <v>2</v>
       </c>
       <c r="I158" s="26"/>
-      <c r="J158" s="17"/>
+      <c r="J158" s="17">
+        <v>2</v>
+      </c>
       <c r="K158" s="10" t="s">
         <v>73</v>
       </c>
@@ -9456,7 +9519,9 @@
         <v>2</v>
       </c>
       <c r="I159" s="26"/>
-      <c r="J159" s="17"/>
+      <c r="J159" s="17">
+        <v>2</v>
+      </c>
       <c r="K159" s="10" t="s">
         <v>73</v>
       </c>
@@ -9491,10 +9556,12 @@
         <v>340</v>
       </c>
       <c r="H160" s="17">
+        <v>2</v>
+      </c>
+      <c r="I160" s="26"/>
+      <c r="J160" s="17">
         <v>1</v>
       </c>
-      <c r="I160" s="26"/>
-      <c r="J160" s="17"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
@@ -9526,7 +9593,9 @@
         <v>2</v>
       </c>
       <c r="I161" s="26"/>
-      <c r="J161" s="17"/>
+      <c r="J161" s="17">
+        <v>2</v>
+      </c>
       <c r="K161" s="10" t="s">
         <v>77</v>
       </c>
@@ -9564,7 +9633,9 @@
         <v>2</v>
       </c>
       <c r="I162" s="10"/>
-      <c r="J162" s="17"/>
+      <c r="J162" s="17">
+        <v>2</v>
+      </c>
       <c r="K162" s="10" t="s">
         <v>77</v>
       </c>
@@ -9602,7 +9673,9 @@
         <v>2</v>
       </c>
       <c r="I163" s="26"/>
-      <c r="J163" s="17"/>
+      <c r="J163" s="17">
+        <v>2</v>
+      </c>
       <c r="K163" s="10" t="s">
         <v>77</v>
       </c>
@@ -9639,10 +9712,12 @@
         <v>340</v>
       </c>
       <c r="H164" s="17">
+        <v>2</v>
+      </c>
+      <c r="I164" s="26"/>
+      <c r="J164" s="17">
         <v>1</v>
       </c>
-      <c r="I164" s="26"/>
-      <c r="J164" s="17"/>
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
@@ -9676,7 +9751,9 @@
         <v>2</v>
       </c>
       <c r="I165" s="26"/>
-      <c r="J165" s="17"/>
+      <c r="J165" s="17">
+        <v>2</v>
+      </c>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
@@ -9708,7 +9785,9 @@
         <v>2</v>
       </c>
       <c r="I166" s="26"/>
-      <c r="J166" s="17"/>
+      <c r="J166" s="17">
+        <v>2</v>
+      </c>
       <c r="K166" s="10" t="s">
         <v>73</v>
       </c>
@@ -9745,10 +9824,12 @@
         <v>340</v>
       </c>
       <c r="H167" s="17">
+        <v>2</v>
+      </c>
+      <c r="I167" s="26"/>
+      <c r="J167" s="17">
         <v>1</v>
       </c>
-      <c r="I167" s="26"/>
-      <c r="J167" s="17"/>
       <c r="K167" s="17"/>
       <c r="L167" s="17"/>
       <c r="M167" s="17"/>
@@ -9780,7 +9861,9 @@
         <v>2</v>
       </c>
       <c r="I168" s="26"/>
-      <c r="J168" s="17"/>
+      <c r="J168" s="17">
+        <v>2</v>
+      </c>
       <c r="K168" s="10" t="s">
         <v>73</v>
       </c>
@@ -9815,10 +9898,12 @@
         <v>340</v>
       </c>
       <c r="H169" s="17">
+        <v>2</v>
+      </c>
+      <c r="I169" s="26"/>
+      <c r="J169" s="17">
         <v>1</v>
       </c>
-      <c r="I169" s="26"/>
-      <c r="J169" s="17"/>
       <c r="K169" s="10"/>
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
@@ -9850,7 +9935,9 @@
         <v>2</v>
       </c>
       <c r="I170" s="10"/>
-      <c r="J170" s="17"/>
+      <c r="J170" s="17">
+        <v>2</v>
+      </c>
       <c r="K170" s="10" t="s">
         <v>73</v>
       </c>
@@ -9891,10 +9978,12 @@
         <v>340</v>
       </c>
       <c r="H171" s="17">
+        <v>2</v>
+      </c>
+      <c r="I171" s="26"/>
+      <c r="J171" s="17">
         <v>1</v>
       </c>
-      <c r="I171" s="26"/>
-      <c r="J171" s="17"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
@@ -9925,10 +10014,12 @@
         <v>340</v>
       </c>
       <c r="H172" s="17">
+        <v>2</v>
+      </c>
+      <c r="I172" s="26"/>
+      <c r="J172" s="17">
         <v>1</v>
       </c>
-      <c r="I172" s="26"/>
-      <c r="J172" s="17"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
@@ -9962,7 +10053,9 @@
         <v>2</v>
       </c>
       <c r="I173" s="26"/>
-      <c r="J173" s="17"/>
+      <c r="J173" s="17">
+        <v>2</v>
+      </c>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -9993,10 +10086,12 @@
         <v>340</v>
       </c>
       <c r="H174" s="17">
+        <v>2</v>
+      </c>
+      <c r="I174" s="26"/>
+      <c r="J174" s="17">
         <v>3</v>
       </c>
-      <c r="I174" s="26"/>
-      <c r="J174" s="17"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
@@ -10028,7 +10123,9 @@
         <v>2</v>
       </c>
       <c r="I175" s="10"/>
-      <c r="J175" s="17"/>
+      <c r="J175" s="17">
+        <v>2</v>
+      </c>
       <c r="K175" s="10" t="s">
         <v>77</v>
       </c>
@@ -10070,7 +10167,9 @@
         <v>2</v>
       </c>
       <c r="I176" s="10"/>
-      <c r="J176" s="17"/>
+      <c r="J176" s="17">
+        <v>2</v>
+      </c>
       <c r="K176" s="10" t="s">
         <v>77</v>
       </c>
@@ -10112,7 +10211,9 @@
         <v>2</v>
       </c>
       <c r="I177" s="26"/>
-      <c r="J177" s="17"/>
+      <c r="J177" s="17">
+        <v>2</v>
+      </c>
       <c r="K177" s="10" t="s">
         <v>77</v>
       </c>
@@ -10146,7 +10247,9 @@
         <v>2</v>
       </c>
       <c r="I178" s="26"/>
-      <c r="J178" s="17"/>
+      <c r="J178" s="17">
+        <v>2</v>
+      </c>
       <c r="K178" s="10" t="s">
         <v>77</v>
       </c>
@@ -10180,7 +10283,9 @@
         <v>2</v>
       </c>
       <c r="I179" s="26"/>
-      <c r="J179" s="17"/>
+      <c r="J179" s="17">
+        <v>2</v>
+      </c>
       <c r="K179" s="10" t="s">
         <v>73</v>
       </c>
@@ -10216,7 +10321,9 @@
         <v>2</v>
       </c>
       <c r="I180" s="10"/>
-      <c r="J180" s="17"/>
+      <c r="J180" s="17">
+        <v>2</v>
+      </c>
       <c r="K180" s="10" t="s">
         <v>77</v>
       </c>
@@ -10260,7 +10367,9 @@
         <v>2</v>
       </c>
       <c r="I181" s="26"/>
-      <c r="J181" s="17"/>
+      <c r="J181" s="17">
+        <v>2</v>
+      </c>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
       <c r="M181" s="17"/>
@@ -10291,10 +10400,12 @@
         <v>340</v>
       </c>
       <c r="H182" s="17">
+        <v>2</v>
+      </c>
+      <c r="I182" s="26"/>
+      <c r="J182" s="17">
         <v>1</v>
       </c>
-      <c r="I182" s="26"/>
-      <c r="J182" s="17"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
       <c r="M182" s="17"/>
@@ -10326,7 +10437,9 @@
         <v>2</v>
       </c>
       <c r="I183" s="10"/>
-      <c r="J183" s="17"/>
+      <c r="J183" s="17">
+        <v>2</v>
+      </c>
       <c r="K183" s="10" t="s">
         <v>77</v>
       </c>
@@ -10367,10 +10480,12 @@
         <v>340</v>
       </c>
       <c r="H184" s="17">
+        <v>2</v>
+      </c>
+      <c r="I184" s="26"/>
+      <c r="J184" s="17">
         <v>1</v>
       </c>
-      <c r="I184" s="26"/>
-      <c r="J184" s="17"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
@@ -10404,7 +10519,9 @@
         <v>2</v>
       </c>
       <c r="I185" s="26"/>
-      <c r="J185" s="17"/>
+      <c r="J185" s="17">
+        <v>2</v>
+      </c>
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
@@ -10435,10 +10552,12 @@
         <v>340</v>
       </c>
       <c r="H186" s="17">
+        <v>2</v>
+      </c>
+      <c r="I186" s="26"/>
+      <c r="J186" s="17">
         <v>3</v>
       </c>
-      <c r="I186" s="26"/>
-      <c r="J186" s="17"/>
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
@@ -10469,10 +10588,12 @@
         <v>340</v>
       </c>
       <c r="H187" s="17">
+        <v>2</v>
+      </c>
+      <c r="I187" s="26"/>
+      <c r="J187" s="17">
         <v>4</v>
       </c>
-      <c r="I187" s="26"/>
-      <c r="J187" s="17"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
       <c r="M187" s="10"/>
@@ -10504,7 +10625,9 @@
         <v>2</v>
       </c>
       <c r="I188" s="26"/>
-      <c r="J188" s="17"/>
+      <c r="J188" s="17">
+        <v>2</v>
+      </c>
       <c r="K188" s="10" t="s">
         <v>73</v>
       </c>
@@ -10542,7 +10665,9 @@
         <v>2</v>
       </c>
       <c r="I189" s="26"/>
-      <c r="J189" s="17"/>
+      <c r="J189" s="17">
+        <v>2</v>
+      </c>
       <c r="K189" s="10" t="s">
         <v>73</v>
       </c>
@@ -10579,10 +10704,12 @@
         <v>340</v>
       </c>
       <c r="H190" s="17">
+        <v>2</v>
+      </c>
+      <c r="I190" s="26"/>
+      <c r="J190" s="17">
         <v>1</v>
       </c>
-      <c r="I190" s="26"/>
-      <c r="J190" s="17"/>
       <c r="K190" s="10"/>
       <c r="L190" s="10"/>
       <c r="M190" s="10"/>
@@ -10613,10 +10740,12 @@
         <v>340</v>
       </c>
       <c r="H191" s="17">
+        <v>2</v>
+      </c>
+      <c r="I191" s="26"/>
+      <c r="J191" s="17">
         <v>1</v>
       </c>
-      <c r="I191" s="26"/>
-      <c r="J191" s="17"/>
       <c r="K191" s="10"/>
       <c r="L191" s="10"/>
       <c r="M191" s="10"/>
@@ -10648,7 +10777,9 @@
         <v>2</v>
       </c>
       <c r="I192" s="10"/>
-      <c r="J192" s="17"/>
+      <c r="J192" s="17">
+        <v>2</v>
+      </c>
       <c r="K192" s="10" t="s">
         <v>73</v>
       </c>
@@ -10689,10 +10820,12 @@
         <v>340</v>
       </c>
       <c r="H193" s="17">
+        <v>2</v>
+      </c>
+      <c r="I193" s="26"/>
+      <c r="J193" s="17">
         <v>1</v>
       </c>
-      <c r="I193" s="26"/>
-      <c r="J193" s="17"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
       <c r="M193" s="10"/>
@@ -10726,7 +10859,9 @@
         <v>2</v>
       </c>
       <c r="I194" s="26"/>
-      <c r="J194" s="17"/>
+      <c r="J194" s="17">
+        <v>2</v>
+      </c>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
@@ -10760,7 +10895,9 @@
         <v>2</v>
       </c>
       <c r="I195" s="26"/>
-      <c r="J195" s="17"/>
+      <c r="J195" s="17">
+        <v>2</v>
+      </c>
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
@@ -10792,7 +10929,9 @@
         <v>2</v>
       </c>
       <c r="I196" s="26"/>
-      <c r="J196" s="17"/>
+      <c r="J196" s="17">
+        <v>2</v>
+      </c>
       <c r="K196" s="10" t="s">
         <v>73</v>
       </c>
@@ -10826,7 +10965,9 @@
         <v>2</v>
       </c>
       <c r="I197" s="26"/>
-      <c r="J197" s="17"/>
+      <c r="J197" s="17">
+        <v>2</v>
+      </c>
       <c r="K197" s="10" t="s">
         <v>73</v>
       </c>
@@ -10862,7 +11003,9 @@
         <v>2</v>
       </c>
       <c r="I198" s="10"/>
-      <c r="J198" s="17"/>
+      <c r="J198" s="17">
+        <v>2</v>
+      </c>
       <c r="K198" s="10" t="s">
         <v>73</v>
       </c>
@@ -10904,7 +11047,9 @@
         <v>2</v>
       </c>
       <c r="I199" s="10"/>
-      <c r="J199" s="17"/>
+      <c r="J199" s="17">
+        <v>2</v>
+      </c>
       <c r="K199" s="10" t="s">
         <v>77</v>
       </c>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B5398-6DA3-1D4B-A799-7369594C2711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC2B9C-780D-E242-B6D5-39D8E0D299D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,9 +1636,6 @@
     <t>Superorder</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>Terrapene</t>
+  </si>
+  <si>
+    <t>Species_order</t>
   </si>
 </sst>
 </file>
@@ -3502,7 +3502,7 @@
   <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:Q1048576"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3563,13 +3563,13 @@
         <v>535</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="P1" s="37" t="s">
         <v>360</v>
@@ -4161,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -4201,10 +4201,10 @@
         <v>92</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
@@ -4285,10 +4285,10 @@
         <v>92</v>
       </c>
       <c r="N18" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -4328,10 +4328,10 @@
         <v>131</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
@@ -4374,7 +4374,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -5097,7 +5097,7 @@
         <v>78</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
@@ -5982,7 +5982,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
@@ -6025,7 +6025,7 @@
         <v>94</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
@@ -6279,7 +6279,7 @@
         <v>130</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
@@ -6405,16 +6405,16 @@
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M68" s="35" t="s">
         <v>419</v>
       </c>
       <c r="N68" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="O68" s="35" t="s">
         <v>552</v>
-      </c>
-      <c r="O68" s="35" t="s">
-        <v>553</v>
       </c>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
@@ -6446,16 +6446,16 @@
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M69" s="35" t="s">
         <v>419</v>
       </c>
       <c r="N69" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" s="35" t="s">
         <v>554</v>
-      </c>
-      <c r="O69" s="35" t="s">
-        <v>555</v>
       </c>
       <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
@@ -6490,10 +6490,10 @@
         <v>92</v>
       </c>
       <c r="M70" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="N70" s="30" t="s">
         <v>556</v>
-      </c>
-      <c r="N70" s="30" t="s">
-        <v>557</v>
       </c>
       <c r="O70" s="30" t="s">
         <v>336</v>
@@ -6533,10 +6533,10 @@
         <v>92</v>
       </c>
       <c r="M71" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="N71" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>336</v>
@@ -6573,16 +6573,16 @@
       <c r="J72" s="9"/>
       <c r="K72" s="12"/>
       <c r="L72" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>335</v>
       </c>
       <c r="N72" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="O72" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>560</v>
       </c>
       <c r="P72" s="43"/>
       <c r="Q72" s="43"/>
@@ -6616,16 +6616,16 @@
       <c r="J73" s="8"/>
       <c r="K73" s="14"/>
       <c r="L73" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="N73" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="P73" s="44"/>
       <c r="Q73" s="44"/>
@@ -6657,16 +6657,16 @@
       <c r="J74" s="8"/>
       <c r="K74" s="14"/>
       <c r="L74" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M74" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="O74" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="P74" s="44"/>
       <c r="Q74" s="44"/>
@@ -6698,16 +6698,16 @@
       <c r="J75" s="8"/>
       <c r="K75" s="14"/>
       <c r="L75" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M75" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="N75" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="O75" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="P75" s="44"/>
       <c r="Q75" s="44"/>
@@ -6884,10 +6884,10 @@
         <v>131</v>
       </c>
       <c r="N79" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
@@ -6929,10 +6929,10 @@
         <v>131</v>
       </c>
       <c r="N80" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
@@ -6948,7 +6948,7 @@
         <v>309</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
@@ -7105,10 +7105,10 @@
         <v>92</v>
       </c>
       <c r="N84" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="O84" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
@@ -7153,7 +7153,7 @@
         <v>100</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
@@ -7330,10 +7330,10 @@
         <v>92</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
@@ -7373,10 +7373,10 @@
         <v>92</v>
       </c>
       <c r="N90" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O90" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -7828,7 +7828,7 @@
         <v>78</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
@@ -7870,7 +7870,7 @@
         <v>82</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O101" s="4" t="s">
         <v>394</v>
@@ -8413,7 +8413,7 @@
         <v>94</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
@@ -9461,7 +9461,7 @@
         <v>125</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
@@ -9506,7 +9506,7 @@
         <v>125</v>
       </c>
       <c r="O136" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
@@ -9522,7 +9522,7 @@
         <v>309</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
@@ -9830,10 +9830,10 @@
         <v>92</v>
       </c>
       <c r="N143" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="O143" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="O143" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
@@ -9874,13 +9874,13 @@
         <v>104</v>
       </c>
       <c r="M144" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="N144" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="N144" s="10" t="s">
+      <c r="O144" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="O144" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
@@ -9927,7 +9927,7 @@
         <v>78</v>
       </c>
       <c r="O145" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
@@ -10491,7 +10491,7 @@
         <v>78</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
@@ -10536,7 +10536,7 @@
         <v>78</v>
       </c>
       <c r="O158" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
@@ -10581,7 +10581,7 @@
         <v>78</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
@@ -10622,13 +10622,13 @@
         <v>92</v>
       </c>
       <c r="M160" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="N160" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="N160" s="10" t="s">
+      <c r="O160" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="O160" s="10" t="s">
-        <v>582</v>
       </c>
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
@@ -10670,7 +10670,7 @@
         <v>82</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O161" s="10" t="s">
         <v>394</v>
@@ -10715,7 +10715,7 @@
         <v>82</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O162" s="10" t="s">
         <v>394</v>
@@ -10760,7 +10760,7 @@
         <v>82</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O163" s="10" t="s">
         <v>394</v>
@@ -10807,7 +10807,7 @@
         <v>82</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O164" s="10" t="s">
         <v>394</v>
@@ -10854,7 +10854,7 @@
         <v>82</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O165" s="10" t="s">
         <v>394</v>
@@ -11926,7 +11926,7 @@
         <v>94</v>
       </c>
       <c r="O188" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P188" s="10"/>
       <c r="Q188" s="10"/>
@@ -11971,7 +11971,7 @@
         <v>94</v>
       </c>
       <c r="O189" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P189" s="10"/>
       <c r="Q189" s="10"/>
@@ -12018,7 +12018,7 @@
         <v>94</v>
       </c>
       <c r="O190" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P190" s="10"/>
       <c r="Q190" s="10"/>
@@ -12065,7 +12065,7 @@
         <v>94</v>
       </c>
       <c r="O191" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P191" s="10"/>
       <c r="Q191" s="10"/>
@@ -12247,13 +12247,13 @@
         <v>92</v>
       </c>
       <c r="M195" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="N195" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="N195" s="10" t="s">
+      <c r="O195" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="O195" s="10" t="s">
-        <v>585</v>
       </c>
       <c r="P195" s="10"/>
       <c r="Q195" s="10"/>
@@ -12618,10 +12618,10 @@
         <v>337</v>
       </c>
       <c r="N203" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="O203" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="O203" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="P203" s="41"/>
       <c r="Q203" s="41"/>
@@ -12659,10 +12659,10 @@
         <v>337</v>
       </c>
       <c r="N204" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="O204" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="O204" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="P204" s="41"/>
       <c r="Q204" s="41"/>

--- a/tabular/ifnl-side-data.xlsx
+++ b/tabular/ifnl-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC2B9C-780D-E242-B6D5-39D8E0D299D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4760754-DBCD-AD41-B94E-0D9EC0A66CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="591">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1796,6 +1796,9 @@
   </si>
   <si>
     <t>Species_order</t>
+  </si>
+  <si>
+    <t>canonical</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1982,6 +1985,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2523,7 +2532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2621,6 +2630,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="529">
@@ -3158,10 +3174,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5BFF"/>
       <color rgb="FFD5FC79"/>
       <color rgb="FFE9C8FE"/>
       <color rgb="FFFFDFED"/>
-      <color rgb="FFFF5BFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
@@ -3501,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E115" sqref="A1:Q204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6738,7 +6754,9 @@
       <c r="I76" s="15">
         <v>1</v>
       </c>
-      <c r="J76" s="4"/>
+      <c r="J76" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K76" s="15"/>
       <c r="L76" s="4" t="s">
         <v>73</v>
@@ -6785,7 +6803,9 @@
       <c r="I77" s="15">
         <v>1</v>
       </c>
-      <c r="J77" s="4"/>
+      <c r="J77" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K77" s="15"/>
       <c r="L77" s="4" t="s">
         <v>73</v>
@@ -6830,7 +6850,9 @@
       <c r="I78" s="15">
         <v>1</v>
       </c>
-      <c r="J78" s="4"/>
+      <c r="J78" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K78" s="15"/>
       <c r="L78" s="4" t="s">
         <v>77</v>
@@ -6875,7 +6897,9 @@
       <c r="I79" s="15">
         <v>1</v>
       </c>
-      <c r="J79" s="4"/>
+      <c r="J79" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
         <v>73</v>
@@ -6893,7 +6917,7 @@
       <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="46" t="s">
         <v>444</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -6920,8 +6944,12 @@
       <c r="I80" s="15">
         <v>1</v>
       </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="J80" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K80" s="16">
+        <v>1</v>
+      </c>
       <c r="L80" s="4" t="s">
         <v>73</v>
       </c>
@@ -6963,7 +6991,9 @@
       <c r="I81" s="15">
         <v>1</v>
       </c>
-      <c r="J81" s="4"/>
+      <c r="J81" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K81" s="15"/>
       <c r="L81" s="4" t="s">
         <v>77</v>
@@ -7008,7 +7038,9 @@
       <c r="I82" s="15">
         <v>1</v>
       </c>
-      <c r="J82" s="4"/>
+      <c r="J82" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K82" s="15"/>
       <c r="L82" s="4" t="s">
         <v>77</v>
@@ -7053,8 +7085,12 @@
       <c r="I83" s="15">
         <v>1</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
+      <c r="J83" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K83" s="16">
+        <v>1</v>
+      </c>
       <c r="L83" s="4" t="s">
         <v>73</v>
       </c>
@@ -7096,7 +7132,9 @@
       <c r="I84" s="15">
         <v>1</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="J84" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
         <v>104</v>
@@ -7141,7 +7179,9 @@
       <c r="I85" s="15">
         <v>1</v>
       </c>
-      <c r="J85" s="4"/>
+      <c r="J85" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
         <v>77</v>
@@ -7184,7 +7224,9 @@
       <c r="I86" s="15">
         <v>1</v>
       </c>
-      <c r="J86" s="4"/>
+      <c r="J86" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K86" s="15"/>
       <c r="L86" s="4" t="s">
         <v>114</v>
@@ -7231,7 +7273,9 @@
       <c r="I87" s="15">
         <v>1</v>
       </c>
-      <c r="J87" s="4"/>
+      <c r="J87" s="48" t="s">
+        <v>590</v>
+      </c>
       <c r="K87" s="15"/>
       <c r="L87" s="4" t="s">
         <v>114</v>
@@ -7278,7 +7322,9 @@
       <c r="I88" s="15">
         <v>1</v>
       </c>
-      <c r="J88" s="4"/>
+      <c r="J88" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4" t="s">
         <v>73</v>
@@ -7321,7 +7367,9 @@
       <c r="I89" s="15">
         <v>1</v>
       </c>
-      <c r="J89" s="4"/>
+      <c r="J89" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
         <v>104</v>
@@ -7364,7 +7412,9 @@
       <c r="I90" s="15">
         <v>1</v>
       </c>
-      <c r="J90" s="4"/>
+      <c r="J90" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
         <v>104</v>
@@ -7382,7 +7432,7 @@
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="46" t="s">
         <v>434</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -7407,8 +7457,12 @@
       <c r="I91" s="15">
         <v>1</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="J91" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K91" s="16">
+        <v>1</v>
+      </c>
       <c r="L91" s="4" t="s">
         <v>73</v>
       </c>
@@ -7425,7 +7479,7 @@
       <c r="Q91" s="4"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="46" t="s">
         <v>247</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -7450,8 +7504,12 @@
       <c r="I92" s="15">
         <v>1</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="15"/>
+      <c r="J92" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K92" s="16">
+        <v>1</v>
+      </c>
       <c r="L92" s="4" t="s">
         <v>73</v>
       </c>
@@ -7495,7 +7553,9 @@
       <c r="I93" s="15">
         <v>1</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K93" s="15"/>
       <c r="L93" s="4" t="s">
         <v>73</v>
@@ -7540,7 +7600,9 @@
       <c r="I94" s="15">
         <v>1</v>
       </c>
-      <c r="J94" s="4"/>
+      <c r="J94" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K94" s="15"/>
       <c r="L94" s="4" t="s">
         <v>73</v>
@@ -7587,7 +7649,9 @@
       <c r="I95" s="15">
         <v>1</v>
       </c>
-      <c r="J95" s="4"/>
+      <c r="J95" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
         <v>73</v>
@@ -7630,7 +7694,9 @@
       <c r="I96" s="15">
         <v>1</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
         <v>77</v>
@@ -7677,7 +7743,9 @@
       <c r="I97" s="15">
         <v>1</v>
       </c>
-      <c r="J97" s="4"/>
+      <c r="J97" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K97" s="15"/>
       <c r="L97" s="4" t="s">
         <v>77</v>
@@ -7724,7 +7792,9 @@
       <c r="I98" s="15">
         <v>1</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K98" s="15"/>
       <c r="L98" s="4" t="s">
         <v>77</v>
@@ -7769,7 +7839,9 @@
       <c r="I99" s="15">
         <v>1</v>
       </c>
-      <c r="J99" s="4"/>
+      <c r="J99" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K99" s="15"/>
       <c r="L99" s="4" t="s">
         <v>73</v>
@@ -7816,7 +7888,9 @@
       <c r="I100" s="15">
         <v>1</v>
       </c>
-      <c r="J100" s="4"/>
+      <c r="J100" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
         <v>73</v>
@@ -7861,7 +7935,9 @@
       <c r="I101" s="15">
         <v>1</v>
       </c>
-      <c r="J101" s="4"/>
+      <c r="J101" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
         <v>77</v>
@@ -7904,7 +7980,9 @@
       <c r="I102" s="15">
         <v>1</v>
       </c>
-      <c r="J102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
         <v>73</v>
@@ -7949,7 +8027,9 @@
       <c r="I103" s="15">
         <v>1</v>
       </c>
-      <c r="J103" s="4"/>
+      <c r="J103" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K103" s="15"/>
       <c r="L103" s="4" t="s">
         <v>77</v>
@@ -7994,7 +8074,9 @@
       <c r="I104" s="15">
         <v>1</v>
       </c>
-      <c r="J104" s="4"/>
+      <c r="J104" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K104" s="15"/>
       <c r="L104" s="4" t="s">
         <v>77</v>
@@ -8037,7 +8119,9 @@
       <c r="I105" s="15">
         <v>1</v>
       </c>
-      <c r="J105" s="4"/>
+      <c r="J105" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K105" s="15"/>
       <c r="L105" s="4" t="s">
         <v>104</v>
@@ -8084,7 +8168,9 @@
       <c r="I106" s="15">
         <v>1</v>
       </c>
-      <c r="J106" s="4"/>
+      <c r="J106" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K106" s="15"/>
       <c r="L106" s="4" t="s">
         <v>77</v>
@@ -8129,7 +8215,9 @@
       <c r="I107" s="15">
         <v>1</v>
       </c>
-      <c r="J107" s="4"/>
+      <c r="J107" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K107" s="15"/>
       <c r="L107" s="4" t="s">
         <v>77</v>
@@ -8176,7 +8264,9 @@
       <c r="I108" s="15">
         <v>1</v>
       </c>
-      <c r="J108" s="4"/>
+      <c r="J108" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4" t="s">
         <v>77</v>
@@ -8219,7 +8309,9 @@
       <c r="I109" s="15">
         <v>1</v>
       </c>
-      <c r="J109" s="4"/>
+      <c r="J109" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K109" s="15"/>
       <c r="L109" s="4" t="s">
         <v>77</v>
@@ -8264,7 +8356,9 @@
       <c r="I110" s="15">
         <v>1</v>
       </c>
-      <c r="J110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K110" s="15"/>
       <c r="L110" s="4" t="s">
         <v>73</v>
@@ -8311,7 +8405,9 @@
       <c r="I111" s="15">
         <v>1</v>
       </c>
-      <c r="J111" s="4"/>
+      <c r="J111" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
         <v>73</v>
@@ -8354,7 +8450,9 @@
       <c r="I112" s="15">
         <v>1</v>
       </c>
-      <c r="J112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K112" s="15"/>
       <c r="L112" s="4" t="s">
         <v>77</v>
@@ -8401,7 +8499,9 @@
       <c r="I113" s="15">
         <v>1</v>
       </c>
-      <c r="J113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
         <v>73</v>
@@ -8444,7 +8544,9 @@
       <c r="I114" s="15">
         <v>1</v>
       </c>
-      <c r="J114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K114" s="15"/>
       <c r="L114" s="4" t="s">
         <v>73</v>
@@ -8489,7 +8591,9 @@
       <c r="I115" s="15">
         <v>1</v>
       </c>
-      <c r="J115" s="4"/>
+      <c r="J115" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
         <v>73</v>
@@ -8532,7 +8636,9 @@
       <c r="I116" s="15">
         <v>1</v>
       </c>
-      <c r="J116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K116" s="15"/>
       <c r="L116" s="4" t="s">
         <v>104</v>
@@ -8577,7 +8683,9 @@
       <c r="I117" s="15">
         <v>1</v>
       </c>
-      <c r="J117" s="4"/>
+      <c r="J117" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="K117" s="15"/>
       <c r="L117" s="4" t="s">
         <v>77</v>
